--- a/data_month/zb/国内贸易/社会消费品零售总额.xlsx
+++ b/data_month/zb/国内贸易/社会消费品零售总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I255"/>
+  <dimension ref="A1:K255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,412 +474,490 @@
           <t>限上单位消费品零售额_累计增长</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>社会消费品零售总额</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>限上单位消费品零售额</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.4</v>
+        <v>11.3</v>
       </c>
       <c r="C2" t="n">
-        <v>3029.3</v>
+        <v>2962.9</v>
       </c>
       <c r="D2" t="n">
-        <v>27364.8</v>
+        <v>2962.9</v>
       </c>
       <c r="E2" t="n">
-        <v>9.9</v>
+        <v>11.3</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>2962.9</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.699999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="C3" t="n">
-        <v>3107.8</v>
+        <v>2804.9</v>
       </c>
       <c r="D3" t="n">
-        <v>30472.6</v>
+        <v>5767.8</v>
       </c>
       <c r="E3" t="n">
-        <v>9.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>2804.9</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>3680</v>
+        <v>2626.6</v>
       </c>
       <c r="D4" t="n">
-        <v>34152.6</v>
+        <v>8394.4</v>
       </c>
       <c r="E4" t="n">
-        <v>9.699999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>2626.599999999999</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
+          <t>2000-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.3</v>
+        <v>9.099999999999991</v>
       </c>
       <c r="C5" t="n">
-        <v>2962.9</v>
+        <v>2571.5</v>
       </c>
       <c r="D5" t="n">
-        <v>2962.9</v>
+        <v>10965.9</v>
       </c>
       <c r="E5" t="n">
-        <v>11.3</v>
+        <v>10.1</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>2571.5</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="C6" t="n">
-        <v>2804.9</v>
+        <v>2636.9</v>
       </c>
       <c r="D6" t="n">
-        <v>5767.8</v>
+        <v>13602.8</v>
       </c>
       <c r="E6" t="n">
-        <v>10.9</v>
+        <v>10.4</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>2636.9</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.300000000000001</v>
+        <v>8.900000000000009</v>
       </c>
       <c r="C7" t="n">
-        <v>2626.6</v>
+        <v>2645.2</v>
       </c>
       <c r="D7" t="n">
-        <v>8394.4</v>
+        <v>16248</v>
       </c>
       <c r="E7" t="n">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>2645.200000000001</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>9.099999999999991</v>
       </c>
       <c r="C8" t="n">
-        <v>2571.5</v>
+        <v>2596.9</v>
       </c>
       <c r="D8" t="n">
-        <v>10965.9</v>
+        <v>18844.9</v>
       </c>
       <c r="E8" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>2596.900000000001</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>2636.9</v>
+        <v>2636.3</v>
       </c>
       <c r="D9" t="n">
-        <v>13602.8</v>
+        <v>21481.2</v>
       </c>
       <c r="E9" t="n">
-        <v>10.4</v>
+        <v>9.900000000000009</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2636.299999999999</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.900000000000009</v>
+        <v>9.599999999999991</v>
       </c>
       <c r="C10" t="n">
-        <v>2645.2</v>
+        <v>2854.3</v>
       </c>
       <c r="D10" t="n">
-        <v>16248</v>
+        <v>24335.5</v>
       </c>
       <c r="E10" t="n">
-        <v>10.1</v>
+        <v>9.900000000000009</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2854.299999999999</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.099999999999991</v>
+        <v>10.4</v>
       </c>
       <c r="C11" t="n">
-        <v>2596.9</v>
+        <v>3029.3</v>
       </c>
       <c r="D11" t="n">
-        <v>18844.9</v>
+        <v>27364.8</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>3029.299999999999</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>2636.3</v>
+        <v>3107.8</v>
       </c>
       <c r="D12" t="n">
-        <v>21481.2</v>
+        <v>30472.6</v>
       </c>
       <c r="E12" t="n">
-        <v>9.900000000000009</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>3107.799999999999</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.599999999999991</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>2854.3</v>
+        <v>3680</v>
       </c>
       <c r="D13" t="n">
-        <v>24335.5</v>
+        <v>34152.6</v>
       </c>
       <c r="E13" t="n">
-        <v>9.900000000000009</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>3680</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="C14" t="n">
-        <v>3347.3</v>
+        <v>3332.8</v>
       </c>
       <c r="D14" t="n">
-        <v>30140.2</v>
+        <v>3332.8</v>
       </c>
       <c r="E14" t="n">
-        <v>10.1</v>
+        <v>12.5</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>3332.8</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.1</v>
+        <v>8.6</v>
       </c>
       <c r="C15" t="n">
-        <v>3421.7</v>
+        <v>3047.1</v>
       </c>
       <c r="D15" t="n">
-        <v>33561.9</v>
+        <v>6379.9</v>
       </c>
       <c r="E15" t="n">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>3047.099999999999</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="C16" t="n">
-        <v>4033.3</v>
+        <v>2876.1</v>
       </c>
       <c r="D16" t="n">
-        <v>37595.2</v>
+        <v>9256</v>
       </c>
       <c r="E16" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2876.1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>3332.8</v>
+        <v>2820.9</v>
       </c>
       <c r="D17" t="n">
-        <v>3332.8</v>
+        <v>12076.9</v>
       </c>
       <c r="E17" t="n">
-        <v>12.5</v>
+        <v>10.1</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2820.9</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.6</v>
+        <v>11.1</v>
       </c>
       <c r="C18" t="n">
-        <v>3047.1</v>
+        <v>2929.6</v>
       </c>
       <c r="D18" t="n">
-        <v>6379.9</v>
+        <v>15006.5</v>
       </c>
       <c r="E18" t="n">
-        <v>10.6</v>
+        <v>10.3</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2929.6</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>2876.1</v>
+        <v>2908.7</v>
       </c>
       <c r="D19" t="n">
-        <v>9256</v>
+        <v>17915.2</v>
       </c>
       <c r="E19" t="n">
         <v>10.3</v>
@@ -888,113 +966,133 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>2908.700000000001</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>2820.9</v>
+        <v>2851.4</v>
       </c>
       <c r="D20" t="n">
-        <v>12076.9</v>
+        <v>20766.6</v>
       </c>
       <c r="E20" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>2851.399999999998</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.1</v>
+        <v>9.6</v>
       </c>
       <c r="C21" t="n">
-        <v>2929.6</v>
+        <v>2889.4</v>
       </c>
       <c r="D21" t="n">
-        <v>15006.5</v>
+        <v>23656</v>
       </c>
       <c r="E21" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>2889.400000000001</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="C22" t="n">
-        <v>2908.7</v>
+        <v>3136.9</v>
       </c>
       <c r="D22" t="n">
-        <v>17915.2</v>
+        <v>26792.9</v>
       </c>
       <c r="E22" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3136.900000000001</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="C23" t="n">
-        <v>2851.4</v>
+        <v>3347.3</v>
       </c>
       <c r="D23" t="n">
-        <v>20766.6</v>
+        <v>30140.2</v>
       </c>
       <c r="E23" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>3347.299999999999</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.6</v>
+        <v>10.1</v>
       </c>
       <c r="C24" t="n">
-        <v>2889.4</v>
+        <v>3421.7</v>
       </c>
       <c r="D24" t="n">
-        <v>23656</v>
+        <v>33561.9</v>
       </c>
       <c r="E24" t="n">
         <v>10.1</v>
@@ -1003,21 +1101,25 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>3421.700000000001</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="C25" t="n">
-        <v>3136.9</v>
+        <v>4033.3</v>
       </c>
       <c r="D25" t="n">
-        <v>26792.9</v>
+        <v>37595.2</v>
       </c>
       <c r="E25" t="n">
         <v>10.1</v>
@@ -1026,182 +1128,214 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>4033.299999999996</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
       <c r="C26" t="n">
-        <v>3661.9</v>
+        <v>3596.1</v>
       </c>
       <c r="D26" t="n">
-        <v>32773</v>
+        <v>3596.1</v>
       </c>
       <c r="E26" t="n">
-        <v>8.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>3596.1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>9.1</v>
       </c>
       <c r="C27" t="n">
-        <v>3733.1</v>
+        <v>3324.4</v>
       </c>
       <c r="D27" t="n">
-        <v>36506.1</v>
+        <v>6920.5</v>
       </c>
       <c r="E27" t="n">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3324.4</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>4404.4</v>
+        <v>3114.8</v>
       </c>
       <c r="D28" t="n">
-        <v>40910.5</v>
+        <v>10035.3</v>
       </c>
       <c r="E28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>3114.799999999999</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>3596.1</v>
+        <v>3052.2</v>
       </c>
       <c r="D29" t="n">
-        <v>3596.1</v>
+        <v>13087.5</v>
       </c>
       <c r="E29" t="n">
-        <v>7.9</v>
+        <v>8.4</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>3052.200000000001</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>3324.4</v>
+        <v>3202.1</v>
       </c>
       <c r="D30" t="n">
-        <v>6920.5</v>
+        <v>16289.6</v>
       </c>
       <c r="E30" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3202.1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="C31" t="n">
-        <v>3114.8</v>
+        <v>3158.8</v>
       </c>
       <c r="D31" t="n">
-        <v>10035.3</v>
+        <v>19448.4</v>
       </c>
       <c r="E31" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3158.800000000001</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="C32" t="n">
-        <v>3052.2</v>
+        <v>3096.6</v>
       </c>
       <c r="D32" t="n">
-        <v>13087.5</v>
+        <v>22545</v>
       </c>
       <c r="E32" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3096.599999999999</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>3202.1</v>
+        <v>3143.7</v>
       </c>
       <c r="D33" t="n">
-        <v>16289.6</v>
+        <v>25688.7</v>
       </c>
       <c r="E33" t="n">
         <v>8.6</v>
@@ -1210,1723 +1344,2023 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>3143.700000000001</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="C34" t="n">
-        <v>3158.8</v>
+        <v>3422.4</v>
       </c>
       <c r="D34" t="n">
-        <v>19448.4</v>
+        <v>29111.1</v>
       </c>
       <c r="E34" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>3422.399999999998</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="C35" t="n">
-        <v>3096.6</v>
+        <v>3661.9</v>
       </c>
       <c r="D35" t="n">
-        <v>22545</v>
+        <v>32773</v>
       </c>
       <c r="E35" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>3661.900000000001</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3733.1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>36506.1</v>
+      </c>
+      <c r="E36" t="n">
         <v>8.800000000000001</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3143.7</v>
-      </c>
-      <c r="D36" t="n">
-        <v>25688.7</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8.6</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>3733.099999999999</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>3422.4</v>
+        <v>4404.4</v>
       </c>
       <c r="D37" t="n">
-        <v>29111.1</v>
+        <v>40910.5</v>
       </c>
       <c r="E37" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4404.400000000001</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="C38" t="n">
-        <v>4204.4</v>
+        <v>3907.4</v>
       </c>
       <c r="D38" t="n">
-        <v>36903.6</v>
+        <v>3907.4</v>
       </c>
       <c r="E38" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>3907.4</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="C39" t="n">
-        <v>4202.7</v>
+        <v>3706.4</v>
       </c>
       <c r="D39" t="n">
-        <v>41106.3</v>
+        <v>7613.8</v>
       </c>
       <c r="E39" t="n">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>3706.4</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>4735.7</v>
+        <v>3494.8</v>
       </c>
       <c r="D40" t="n">
-        <v>45842</v>
+        <v>11108.6</v>
       </c>
       <c r="E40" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>3494.8</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>7.7</v>
       </c>
       <c r="C41" t="n">
-        <v>3907.4</v>
+        <v>3406.9</v>
       </c>
       <c r="D41" t="n">
-        <v>3907.4</v>
+        <v>14515.5</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>3406.9</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.5</v>
+        <v>4.3</v>
       </c>
       <c r="C42" t="n">
-        <v>3706.4</v>
+        <v>3463.3</v>
       </c>
       <c r="D42" t="n">
-        <v>7613.8</v>
+        <v>17978.8</v>
       </c>
       <c r="E42" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>3463.299999999999</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>3494.8</v>
+        <v>3576.9</v>
       </c>
       <c r="D43" t="n">
-        <v>11108.6</v>
+        <v>21555.7</v>
       </c>
       <c r="E43" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>3576.900000000001</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>3406.9</v>
+        <v>3562.1</v>
       </c>
       <c r="D44" t="n">
-        <v>14515.5</v>
+        <v>25117.8</v>
       </c>
       <c r="E44" t="n">
-        <v>8.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>3562.099999999999</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.3</v>
+        <v>9.9</v>
       </c>
       <c r="C45" t="n">
-        <v>3463.3</v>
+        <v>3609.6</v>
       </c>
       <c r="D45" t="n">
-        <v>17978.8</v>
+        <v>28727.4</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>3609.600000000002</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="C46" t="n">
-        <v>3576.9</v>
+        <v>3971.8</v>
       </c>
       <c r="D46" t="n">
-        <v>21555.7</v>
+        <v>32699.2</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>3971.799999999999</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>9.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="C47" t="n">
-        <v>3562.1</v>
+        <v>4204.4</v>
       </c>
       <c r="D47" t="n">
-        <v>25117.8</v>
+        <v>36903.6</v>
       </c>
       <c r="E47" t="n">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>4204.399999999998</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>3609.6</v>
+        <v>4202.7</v>
       </c>
       <c r="D48" t="n">
-        <v>28727.4</v>
+        <v>41106.3</v>
       </c>
       <c r="E48" t="n">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>4202.700000000004</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>9.5</v>
+        <v>10.9</v>
       </c>
       <c r="C49" t="n">
-        <v>3971.8</v>
+        <v>4735.7</v>
       </c>
       <c r="D49" t="n">
-        <v>32699.2</v>
+        <v>45842</v>
       </c>
       <c r="E49" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>4735.699999999997</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>14.2</v>
+        <v>11.8</v>
       </c>
       <c r="C50" t="n">
-        <v>4983.2</v>
+        <v>4569.4</v>
       </c>
       <c r="D50" t="n">
-        <v>43422</v>
+        <v>4569.4</v>
       </c>
       <c r="E50" t="n">
-        <v>13.1</v>
+        <v>11.8</v>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>4569.4</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>13.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>4965.6</v>
+        <v>4211.4</v>
       </c>
       <c r="D51" t="n">
-        <v>48387.6</v>
+        <v>8780.799999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>13.2</v>
+        <v>10.5</v>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4211.4</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>14.5</v>
+        <v>11.1</v>
       </c>
       <c r="C52" t="n">
-        <v>5562.5</v>
+        <v>4049.8</v>
       </c>
       <c r="D52" t="n">
-        <v>53950.1</v>
+        <v>12830.6</v>
       </c>
       <c r="E52" t="n">
-        <v>13.3</v>
+        <v>10.7</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>4049.800000000001</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>11.8</v>
+        <v>13.2</v>
       </c>
       <c r="C53" t="n">
-        <v>4569.4</v>
+        <v>4001.8</v>
       </c>
       <c r="D53" t="n">
-        <v>4569.4</v>
+        <v>16832.4</v>
       </c>
       <c r="E53" t="n">
-        <v>11.8</v>
+        <v>11.3</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>4001.800000000001</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>9.199999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="C54" t="n">
-        <v>4211.4</v>
+        <v>4166.1</v>
       </c>
       <c r="D54" t="n">
-        <v>8780.799999999999</v>
+        <v>20998.5</v>
       </c>
       <c r="E54" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>4166.099999999999</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>11.1</v>
+        <v>13.9</v>
       </c>
       <c r="C55" t="n">
-        <v>4049.8</v>
+        <v>4250.7</v>
       </c>
       <c r="D55" t="n">
-        <v>12830.6</v>
+        <v>25249.2</v>
       </c>
       <c r="E55" t="n">
-        <v>10.7</v>
+        <v>12.8</v>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>4250.700000000001</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>13.2</v>
       </c>
       <c r="C56" t="n">
-        <v>4001.8</v>
+        <v>4209.2</v>
       </c>
       <c r="D56" t="n">
-        <v>16832.4</v>
+        <v>29458.4</v>
       </c>
       <c r="E56" t="n">
-        <v>11.3</v>
+        <v>12.8</v>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>4209.200000000001</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>17.8</v>
+        <v>13.1</v>
       </c>
       <c r="C57" t="n">
-        <v>4166.1</v>
+        <v>4262.7</v>
       </c>
       <c r="D57" t="n">
-        <v>20998.5</v>
+        <v>33721.1</v>
       </c>
       <c r="E57" t="n">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>4262.699999999997</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C58" t="n">
-        <v>4250.7</v>
+        <v>4717.7</v>
       </c>
       <c r="D58" t="n">
-        <v>25249.2</v>
+        <v>38438.8</v>
       </c>
       <c r="E58" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>4717.700000000004</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>13.2</v>
+        <v>14.2</v>
       </c>
       <c r="C59" t="n">
-        <v>4209.2</v>
+        <v>4983.2</v>
       </c>
       <c r="D59" t="n">
-        <v>29458.4</v>
+        <v>43422</v>
       </c>
       <c r="E59" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>4983.199999999997</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>13.1</v>
+        <v>13.9</v>
       </c>
       <c r="C60" t="n">
-        <v>4262.7</v>
+        <v>4965.6</v>
       </c>
       <c r="D60" t="n">
-        <v>33721.1</v>
+        <v>48387.6</v>
       </c>
       <c r="E60" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>4965.599999999999</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="C61" t="n">
-        <v>4717.7</v>
+        <v>5562.5</v>
       </c>
       <c r="D61" t="n">
-        <v>38438.8</v>
+        <v>53950.1</v>
       </c>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>5562.5</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>12.8</v>
+        <v>11.5</v>
       </c>
       <c r="C62" t="n">
-        <v>5846.6</v>
+        <v>5300.9</v>
       </c>
       <c r="D62" t="n">
-        <v>50927.2</v>
+        <v>5300.9</v>
       </c>
       <c r="E62" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>5300.9</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>12.4</v>
+        <v>15.8</v>
       </c>
       <c r="C63" t="n">
-        <v>5909</v>
+        <v>5012.2</v>
       </c>
       <c r="D63" t="n">
-        <v>56836.2</v>
+        <v>10313.1</v>
       </c>
       <c r="E63" t="n">
-        <v>12.9</v>
+        <v>13.6</v>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>5012.200000000001</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>12.5</v>
+        <v>13.9</v>
       </c>
       <c r="C64" t="n">
-        <v>6850.4</v>
+        <v>4799.1</v>
       </c>
       <c r="D64" t="n">
-        <v>67176.60000000001</v>
+        <v>15112.2</v>
       </c>
       <c r="E64" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>4799.1</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>11.5</v>
+        <v>12.2</v>
       </c>
       <c r="C65" t="n">
-        <v>5300.9</v>
+        <v>4663.3</v>
       </c>
       <c r="D65" t="n">
-        <v>5300.9</v>
+        <v>19775.5</v>
       </c>
       <c r="E65" t="n">
-        <v>11.5</v>
+        <v>13.3</v>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>4663.299999999999</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>15.8</v>
+        <v>12.8</v>
       </c>
       <c r="C66" t="n">
-        <v>5012.2</v>
+        <v>4899.2</v>
       </c>
       <c r="D66" t="n">
-        <v>10313.1</v>
+        <v>24674.7</v>
       </c>
       <c r="E66" t="n">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>4899.200000000001</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>13.9</v>
+        <v>12.9</v>
       </c>
       <c r="C67" t="n">
-        <v>4799.1</v>
+        <v>4935</v>
       </c>
       <c r="D67" t="n">
-        <v>15112.2</v>
+        <v>29609.7</v>
       </c>
       <c r="E67" t="n">
-        <v>13.7</v>
+        <v>13.2</v>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>4935</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="C68" t="n">
-        <v>4663.3</v>
+        <v>4934.9</v>
       </c>
       <c r="D68" t="n">
-        <v>19775.5</v>
+        <v>34544.6</v>
       </c>
       <c r="E68" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>4934.899999999998</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="C69" t="n">
-        <v>4899.2</v>
+        <v>5040.7875</v>
       </c>
       <c r="D69" t="n">
-        <v>24674.7</v>
+        <v>39585.367</v>
       </c>
       <c r="E69" t="n">
-        <v>13.2</v>
+        <v>13.0196744058564</v>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>5040.767</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="C70" t="n">
-        <v>4935</v>
+        <v>5495.2</v>
       </c>
       <c r="D70" t="n">
-        <v>29609.7</v>
+        <v>45080.567</v>
       </c>
       <c r="E70" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>5495.200000000004</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="C71" t="n">
-        <v>4934.9</v>
+        <v>5846.6</v>
       </c>
       <c r="D71" t="n">
-        <v>34544.6</v>
+        <v>50927.2</v>
       </c>
       <c r="E71" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>5846.632999999994</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C72" t="n">
-        <v>5040.7875</v>
+        <v>5909</v>
       </c>
       <c r="D72" t="n">
-        <v>39585.367</v>
+        <v>56836.2</v>
       </c>
       <c r="E72" t="n">
-        <v>13.0196744058564</v>
+        <v>12.9</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>5909</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="C73" t="n">
-        <v>5495.2</v>
+        <v>6850.4</v>
       </c>
       <c r="D73" t="n">
-        <v>45080.567</v>
+        <v>67176.60000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>10340.40000000001</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>14.348977057324</v>
+        <v>15.5</v>
       </c>
       <c r="C74" t="n">
-        <v>6997.7</v>
+        <v>6641.6</v>
       </c>
       <c r="D74" t="n">
-        <v>62089.1</v>
+        <v>6641.6</v>
       </c>
       <c r="E74" t="n">
-        <v>13.5999956088912</v>
+        <v>15.5</v>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>6641.6</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>14.1</v>
+        <v>9.4</v>
       </c>
       <c r="C75" t="n">
-        <v>6821.7</v>
+        <v>6001.9</v>
       </c>
       <c r="D75" t="n">
-        <v>68910.8</v>
+        <v>12643.5</v>
       </c>
       <c r="E75" t="n">
-        <v>13.6</v>
+        <v>12.5</v>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>6001.9</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>14.6</v>
+        <v>13.5</v>
       </c>
       <c r="C76" t="n">
-        <v>7499.2</v>
+        <v>5796.7</v>
       </c>
       <c r="D76" t="n">
-        <v>76410</v>
+        <v>18440.2</v>
       </c>
       <c r="E76" t="n">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>5796.700000000001</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>15.5</v>
+        <v>13.5547558649441</v>
       </c>
       <c r="C77" t="n">
-        <v>6641.6</v>
+        <v>5774.6</v>
       </c>
       <c r="D77" t="n">
-        <v>6641.6</v>
+        <v>24214.8</v>
       </c>
       <c r="E77" t="n">
-        <v>15.5</v>
+        <v>12.9985580490263</v>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>5774.599999999999</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>9.4</v>
+        <v>14.2</v>
       </c>
       <c r="C78" t="n">
-        <v>6001.9</v>
+        <v>6175.6</v>
       </c>
       <c r="D78" t="n">
-        <v>12643.5</v>
+        <v>30390.4</v>
       </c>
       <c r="E78" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>6175.600000000002</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="C79" t="n">
-        <v>5796.7</v>
+        <v>6057.8</v>
       </c>
       <c r="D79" t="n">
-        <v>18440.2</v>
+        <v>36448.2</v>
       </c>
       <c r="E79" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>6057.799999999996</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>13.5547558649441</v>
+        <v>13.7</v>
       </c>
       <c r="C80" t="n">
-        <v>5774.6</v>
+        <v>6012.2</v>
       </c>
       <c r="D80" t="n">
-        <v>24214.8</v>
+        <v>42460.4</v>
       </c>
       <c r="E80" t="n">
-        <v>12.9985580490263</v>
+        <v>13.4155754320648</v>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>6012.200000000004</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>14.2</v>
+        <v>13.8</v>
       </c>
       <c r="C81" t="n">
-        <v>6175.6</v>
+        <v>6077.4</v>
       </c>
       <c r="D81" t="n">
-        <v>30390.4</v>
+        <v>48537.8</v>
       </c>
       <c r="E81" t="n">
-        <v>13.2</v>
+        <v>13.4519326737209</v>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>6077.400000000001</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>13.9</v>
       </c>
       <c r="C82" t="n">
-        <v>6057.8</v>
+        <v>6553.6</v>
       </c>
       <c r="D82" t="n">
-        <v>36448.2</v>
+        <v>55091.4</v>
       </c>
       <c r="E82" t="n">
-        <v>13.3</v>
+        <v>13.5</v>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>6553.599999999999</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>13.7</v>
+        <v>14.348977057324</v>
       </c>
       <c r="C83" t="n">
-        <v>6012.2</v>
+        <v>6997.7</v>
       </c>
       <c r="D83" t="n">
-        <v>42460.4</v>
+        <v>62089.1</v>
       </c>
       <c r="E83" t="n">
-        <v>13.4155754320648</v>
+        <v>13.5999956088912</v>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>6997.699999999997</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>13.8</v>
+        <v>14.1</v>
       </c>
       <c r="C84" t="n">
-        <v>6077.4</v>
+        <v>6821.7</v>
       </c>
       <c r="D84" t="n">
-        <v>48537.8</v>
+        <v>68910.8</v>
       </c>
       <c r="E84" t="n">
-        <v>13.4519326737209</v>
+        <v>13.6</v>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>6821.700000000004</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13.9</v>
+        <v>14.6</v>
       </c>
       <c r="C85" t="n">
-        <v>6553.6</v>
+        <v>7499.2</v>
       </c>
       <c r="D85" t="n">
-        <v>55091.4</v>
+        <v>76410</v>
       </c>
       <c r="E85" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>7499.199999999997</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>18.1</v>
+        <v>12.7483288266178</v>
       </c>
       <c r="C86" t="n">
-        <v>8263</v>
+        <v>7488.3</v>
       </c>
       <c r="D86" t="n">
-        <v>72090</v>
+        <v>7488.3</v>
       </c>
       <c r="E86" t="n">
-        <v>16.1</v>
+        <v>12.7483288266178</v>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>7488.3</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>18.8</v>
+        <v>16.8579949682601</v>
       </c>
       <c r="C87" t="n">
-        <v>8104.7</v>
+        <v>7013.7</v>
       </c>
       <c r="D87" t="n">
-        <v>80194.7</v>
+        <v>14502</v>
       </c>
       <c r="E87" t="n">
-        <v>16.4</v>
+        <v>14.6992525803773</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>7013.7</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>20.2</v>
+        <v>15.3380371590733</v>
       </c>
       <c r="C88" t="n">
-        <v>9015.299999999999</v>
+        <v>6685.8</v>
       </c>
       <c r="D88" t="n">
-        <v>89210</v>
+        <v>21187.8</v>
       </c>
       <c r="E88" t="n">
-        <v>16.8</v>
+        <v>14.9000553139337</v>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>6685.799999999999</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>12.7483288266178</v>
+        <v>15.5</v>
       </c>
       <c r="C89" t="n">
-        <v>7488.3</v>
+        <v>6672.5</v>
       </c>
       <c r="D89" t="n">
-        <v>7488.3</v>
+        <v>27860.3</v>
       </c>
       <c r="E89" t="n">
-        <v>12.7483288266178</v>
+        <v>15.1</v>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6672.5</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>16.8579949682601</v>
+        <v>15.9</v>
       </c>
       <c r="C90" t="n">
-        <v>7013.7</v>
+        <v>7157.5</v>
       </c>
       <c r="D90" t="n">
-        <v>14502</v>
+        <v>35017.8</v>
       </c>
       <c r="E90" t="n">
-        <v>14.6992525803773</v>
+        <v>15.2</v>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>7157.500000000004</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>15.3380371590733</v>
+        <v>15.9826999900954</v>
       </c>
       <c r="C91" t="n">
-        <v>6685.8</v>
+        <v>7026</v>
       </c>
       <c r="D91" t="n">
-        <v>21187.8</v>
+        <v>42043.8</v>
       </c>
       <c r="E91" t="n">
-        <v>14.9000553139337</v>
+        <v>15.4</v>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>7026</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6998.2</v>
+      </c>
+      <c r="D92" t="n">
+        <v>49042</v>
+      </c>
+      <c r="E92" t="n">
         <v>15.5</v>
-      </c>
-      <c r="C92" t="n">
-        <v>6672.5</v>
-      </c>
-      <c r="D92" t="n">
-        <v>27860.3</v>
-      </c>
-      <c r="E92" t="n">
-        <v>15.1</v>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>6998.199999999997</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>15.9</v>
+        <v>17.1</v>
       </c>
       <c r="C93" t="n">
-        <v>7157.5</v>
+        <v>7116.6</v>
       </c>
       <c r="D93" t="n">
-        <v>35017.8</v>
+        <v>56158.6</v>
       </c>
       <c r="E93" t="n">
-        <v>15.2</v>
+        <v>15.7</v>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>7116.599999999999</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>15.9826999900954</v>
+        <v>17.010498046875</v>
       </c>
       <c r="C94" t="n">
-        <v>7026</v>
+        <v>7668.4</v>
       </c>
       <c r="D94" t="n">
-        <v>42043.8</v>
+        <v>63827</v>
       </c>
       <c r="E94" t="n">
-        <v>15.4</v>
+        <v>15.8565583739023</v>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>7668.400000000001</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>16.4</v>
+        <v>18.1</v>
       </c>
       <c r="C95" t="n">
-        <v>6998.2</v>
+        <v>8263</v>
       </c>
       <c r="D95" t="n">
-        <v>49042</v>
+        <v>72090</v>
       </c>
       <c r="E95" t="n">
-        <v>15.5</v>
+        <v>16.1</v>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>8263</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>17.1</v>
+        <v>18.8</v>
       </c>
       <c r="C96" t="n">
-        <v>7116.6</v>
+        <v>8104.7</v>
       </c>
       <c r="D96" t="n">
-        <v>56158.6</v>
+        <v>80194.7</v>
       </c>
       <c r="E96" t="n">
-        <v>15.7</v>
+        <v>16.4</v>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>8104.699999999997</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>17.010498046875</v>
+        <v>20.2</v>
       </c>
       <c r="C97" t="n">
-        <v>7668.4</v>
+        <v>9015.299999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>63827</v>
+        <v>89210</v>
       </c>
       <c r="E97" t="n">
-        <v>15.8565583739023</v>
+        <v>16.8</v>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>9015.300000000003</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="C98" t="n">
-        <v>10082.7</v>
+        <v>9077.299999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>87968.39999999999</v>
+        <v>9077.299999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>9077.299999999999</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>20.8</v>
+        <v>19.1</v>
       </c>
       <c r="C99" t="n">
-        <v>9790.799999999999</v>
+        <v>8354.700000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>97759.2</v>
+        <v>17432</v>
       </c>
       <c r="E99" t="n">
-        <v>21.9</v>
+        <v>20.2</v>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>8354.700000000001</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="C100" t="n">
-        <v>10728.5</v>
+        <v>8123.2</v>
       </c>
       <c r="D100" t="n">
-        <v>108487.7</v>
+        <v>25555.2</v>
       </c>
       <c r="E100" t="n">
-        <v>21.6</v>
+        <v>20.6</v>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>8123.200000000001</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="C101" t="n">
-        <v>9077.299999999999</v>
+        <v>8142</v>
       </c>
       <c r="D101" t="n">
-        <v>9077.299999999999</v>
+        <v>33697.2</v>
       </c>
       <c r="E101" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>8141.999999999996</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>19.1</v>
+        <v>21.6</v>
       </c>
       <c r="C102" t="n">
-        <v>8354.700000000001</v>
+        <v>8703.5</v>
       </c>
       <c r="D102" t="n">
-        <v>17432</v>
+        <v>42400.7</v>
       </c>
       <c r="E102" t="n">
-        <v>20.2</v>
+        <v>21.1</v>
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>8703.5</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>21.5</v>
+        <v>23</v>
       </c>
       <c r="C103" t="n">
-        <v>8123.2</v>
+        <v>8642</v>
       </c>
       <c r="D103" t="n">
-        <v>25555.2</v>
+        <v>51042.7</v>
       </c>
       <c r="E103" t="n">
-        <v>20.6</v>
+        <v>21.4</v>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>8642</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>22</v>
+        <v>23.3</v>
       </c>
       <c r="C104" t="n">
-        <v>8142</v>
+        <v>8628.799999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>33697.2</v>
+        <v>59671.5</v>
       </c>
       <c r="E104" t="n">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>8628.800000000003</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>21.6</v>
+        <v>23.2</v>
       </c>
       <c r="C105" t="n">
-        <v>8703.5</v>
+        <v>8767.700000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>42400.7</v>
+        <v>68439.2</v>
       </c>
       <c r="E105" t="n">
-        <v>21.1</v>
+        <v>21.9</v>
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>8767.699999999997</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="C106" t="n">
-        <v>8642</v>
+        <v>9446.5</v>
       </c>
       <c r="D106" t="n">
-        <v>51042.7</v>
+        <v>77885.7</v>
       </c>
       <c r="E106" t="n">
-        <v>21.4</v>
+        <v>22</v>
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>9446.5</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>23.3</v>
+        <v>22</v>
       </c>
       <c r="C107" t="n">
-        <v>8628.799999999999</v>
+        <v>10082.7</v>
       </c>
       <c r="D107" t="n">
-        <v>59671.5</v>
+        <v>87968.39999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>10082.7</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>23.2</v>
+        <v>20.8</v>
       </c>
       <c r="C108" t="n">
-        <v>8767.700000000001</v>
+        <v>9790.799999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>68439.2</v>
+        <v>97759.2</v>
       </c>
       <c r="E108" t="n">
         <v>21.9</v>
@@ -2935,159 +3369,187 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>9790.800000000003</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>23.2</v>
+        <v>19</v>
       </c>
       <c r="C109" t="n">
-        <v>9446.5</v>
+        <v>10728.5</v>
       </c>
       <c r="D109" t="n">
-        <v>77885.7</v>
+        <v>108487.7</v>
       </c>
       <c r="E109" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>10728.5</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>16.2149027542226</v>
+        <v>18.5</v>
       </c>
       <c r="C110" t="n">
-        <v>11717.6</v>
+        <v>10756.6</v>
       </c>
       <c r="D110" t="n">
-        <v>101393.7</v>
+        <v>10756.6</v>
       </c>
       <c r="E110" t="n">
-        <v>15.261502994257</v>
+        <v>18.5</v>
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>10756.6</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>15.8128038566818</v>
+        <v>11.6</v>
       </c>
       <c r="C111" t="n">
-        <v>11339</v>
+        <v>9323.799999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>112732.7</v>
+        <v>20080.4</v>
       </c>
       <c r="E111" t="n">
-        <v>15.3167169944108</v>
+        <v>15.2</v>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>9323.800000000001</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>17.5374003821597</v>
+        <v>14.7</v>
       </c>
       <c r="C112" t="n">
-        <v>12610</v>
+        <v>9317.6</v>
       </c>
       <c r="D112" t="n">
-        <v>125342.7</v>
+        <v>29398</v>
       </c>
       <c r="E112" t="n">
-        <v>15.5363234726149</v>
+        <v>15</v>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>9317.599999999999</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>18.5</v>
+        <v>14.8</v>
       </c>
       <c r="C113" t="n">
-        <v>10756.6</v>
+        <v>9343.200000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>10756.6</v>
+        <v>38741.2</v>
       </c>
       <c r="E113" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>9343.199999999997</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>11.6</v>
+        <v>15.2</v>
       </c>
       <c r="C114" t="n">
-        <v>9323.799999999999</v>
+        <v>10028.4</v>
       </c>
       <c r="D114" t="n">
-        <v>20080.4</v>
+        <v>48769.6</v>
       </c>
       <c r="E114" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>10028.4</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="C115" t="n">
-        <v>9317.6</v>
+        <v>9941.6</v>
       </c>
       <c r="D115" t="n">
-        <v>29398</v>
+        <v>58711.2</v>
       </c>
       <c r="E115" t="n">
         <v>15</v>
@@ -3096,21 +3558,25 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>9941.599999999999</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="C116" t="n">
-        <v>9343.200000000001</v>
+        <v>9936.5</v>
       </c>
       <c r="D116" t="n">
-        <v>38741.2</v>
+        <v>68647.7</v>
       </c>
       <c r="E116" t="n">
         <v>15</v>
@@ -3119,4094 +3585,4896 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>9936.5</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C117" t="n">
-        <v>10028.4</v>
+        <v>10115.6</v>
       </c>
       <c r="D117" t="n">
-        <v>48769.6</v>
+        <v>78763.3</v>
       </c>
       <c r="E117" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10115.60000000001</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>15</v>
+        <v>15.5221510612396</v>
       </c>
       <c r="C118" t="n">
-        <v>9941.6</v>
+        <v>10912.8</v>
       </c>
       <c r="D118" t="n">
-        <v>58711.2</v>
+        <v>89676.10000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>15</v>
+        <v>15.1380805462364</v>
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>10912.8</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>15.2</v>
+        <v>16.2149027542226</v>
       </c>
       <c r="C119" t="n">
-        <v>9936.5</v>
+        <v>11717.6</v>
       </c>
       <c r="D119" t="n">
-        <v>68647.7</v>
+        <v>101393.7</v>
       </c>
       <c r="E119" t="n">
-        <v>15</v>
+        <v>15.261502994257</v>
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>11717.59999999999</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>15.4</v>
+        <v>15.8128038566818</v>
       </c>
       <c r="C120" t="n">
-        <v>10115.6</v>
+        <v>11339</v>
       </c>
       <c r="D120" t="n">
-        <v>78763.3</v>
+        <v>112732.7</v>
       </c>
       <c r="E120" t="n">
-        <v>15.1</v>
+        <v>15.3167169944108</v>
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11339</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>15.5221510612396</v>
+        <v>17.5374003821597</v>
       </c>
       <c r="C121" t="n">
-        <v>10912.8</v>
+        <v>12610</v>
       </c>
       <c r="D121" t="n">
-        <v>89676.10000000001</v>
+        <v>125342.7</v>
       </c>
       <c r="E121" t="n">
-        <v>15.1380805462364</v>
+        <v>15.5363234726149</v>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>12610</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>18.64</v>
+        <v>14</v>
       </c>
       <c r="C122" t="n">
-        <v>14284.8</v>
+        <v>12718.1</v>
       </c>
       <c r="D122" t="n">
-        <v>125313.3</v>
+        <v>12718.1</v>
       </c>
       <c r="E122" t="n">
-        <v>18.3</v>
+        <v>14</v>
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>12718.1</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>18.7</v>
+        <v>22.1</v>
       </c>
       <c r="C123" t="n">
-        <v>13910.9</v>
+        <v>12334.2</v>
       </c>
       <c r="D123" t="n">
-        <v>139224.2</v>
+        <v>25052.3</v>
       </c>
       <c r="E123" t="n">
-        <v>18.4</v>
+        <v>17.9</v>
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>12334.2</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>19.1</v>
+        <v>18</v>
       </c>
       <c r="C124" t="n">
-        <v>15329.5</v>
+        <v>11321.7</v>
       </c>
       <c r="D124" t="n">
-        <v>154553.7</v>
+        <v>36374</v>
       </c>
       <c r="E124" t="n">
-        <v>18.4</v>
+        <v>17.9</v>
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>11321.7</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="C125" t="n">
-        <v>12718.1</v>
+        <v>11510.4</v>
       </c>
       <c r="D125" t="n">
-        <v>12718.1</v>
+        <v>47884.4</v>
       </c>
       <c r="E125" t="n">
-        <v>14</v>
+        <v>18.1</v>
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>11510.4</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>22.1</v>
+        <v>18.657329846613</v>
       </c>
       <c r="C126" t="n">
-        <v>12334.2</v>
+        <v>12455.0617</v>
       </c>
       <c r="D126" t="n">
-        <v>25052.3</v>
+        <v>60339.4617</v>
       </c>
       <c r="E126" t="n">
-        <v>17.9</v>
+        <v>18.1797423527016</v>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>12455.0617</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="C127" t="n">
-        <v>11321.7</v>
+        <v>12329.9</v>
       </c>
       <c r="D127" t="n">
-        <v>36374</v>
+        <v>72669.39999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>12329.93829999999</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>18.5</v>
+        <v>17.9480762011109</v>
       </c>
       <c r="C128" t="n">
-        <v>11510.4</v>
+        <v>12252.8</v>
       </c>
       <c r="D128" t="n">
-        <v>47884.4</v>
+        <v>84922.2</v>
       </c>
       <c r="E128" t="n">
-        <v>18.1</v>
+        <v>18.1675871310316</v>
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>12252.8</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>18.657329846613</v>
+        <v>18.4</v>
       </c>
       <c r="C129" t="n">
-        <v>12455.0617</v>
+        <v>12569.8</v>
       </c>
       <c r="D129" t="n">
-        <v>60339.4617</v>
+        <v>97492</v>
       </c>
       <c r="E129" t="n">
-        <v>18.1797423527016</v>
+        <v>18.2</v>
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>12569.8</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="C130" t="n">
+        <v>13536.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>111028.5</v>
+      </c>
+      <c r="E130" t="n">
         <v>18.3</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12329.9</v>
-      </c>
-      <c r="D130" t="n">
-        <v>72669.39999999999</v>
-      </c>
-      <c r="E130" t="n">
-        <v>18.2</v>
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>13536.5</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>17.9480762011109</v>
+        <v>18.64</v>
       </c>
       <c r="C131" t="n">
-        <v>12252.8</v>
+        <v>14284.8</v>
       </c>
       <c r="D131" t="n">
-        <v>84922.2</v>
+        <v>125313.3</v>
       </c>
       <c r="E131" t="n">
-        <v>18.1675871310316</v>
+        <v>18.3</v>
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>14284.8</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>13910.9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>139224.2</v>
+      </c>
+      <c r="E132" t="n">
         <v>18.4</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12569.8</v>
-      </c>
-      <c r="D132" t="n">
-        <v>97492</v>
-      </c>
-      <c r="E132" t="n">
-        <v>18.2</v>
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>13910.90000000001</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>18.84</v>
+        <v>19.1</v>
       </c>
       <c r="C133" t="n">
-        <v>13536.5</v>
+        <v>15329.5</v>
       </c>
       <c r="D133" t="n">
-        <v>111028.5</v>
+        <v>154553.7</v>
       </c>
       <c r="E133" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>15329.5</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>17.2497360421199</v>
+        <v>19.8999850606616</v>
       </c>
       <c r="C134" t="n">
-        <v>16546.4</v>
+        <v>15249</v>
       </c>
       <c r="D134" t="n">
-        <v>147357.2</v>
+        <v>15249</v>
       </c>
       <c r="E134" t="n">
-        <v>16.9981651201326</v>
+        <v>19.8999850606616</v>
       </c>
       <c r="F134" t="n">
-        <v>21.3</v>
+        <v>27.8</v>
       </c>
       <c r="G134" t="n">
-        <v>7628.6</v>
-      </c>
-      <c r="H134" t="n">
-        <v>67791.7</v>
-      </c>
-      <c r="I134" t="n">
-        <v>23</v>
-      </c>
+        <v>6942.5</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>15249</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>17.3</v>
+        <v>11.6335068346549</v>
       </c>
       <c r="C135" t="n">
-        <v>16128.9</v>
+        <v>13769.1</v>
       </c>
       <c r="D135" t="n">
-        <v>163486.1</v>
+        <v>29018.1</v>
       </c>
       <c r="E135" t="n">
-        <v>17</v>
+        <v>15.8300834653904</v>
       </c>
       <c r="F135" t="n">
-        <v>21.5</v>
+        <v>13</v>
       </c>
       <c r="G135" t="n">
-        <v>7744.8</v>
+        <v>5781.1</v>
       </c>
       <c r="H135" t="n">
-        <v>75547.5</v>
+        <v>12723.5</v>
       </c>
       <c r="I135" t="n">
-        <v>22.8</v>
+        <v>20.7</v>
+      </c>
+      <c r="J135" t="n">
+        <v>13769.1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>12723.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>18.1</v>
+        <v>17.4375993915508</v>
       </c>
       <c r="C136" t="n">
-        <v>17739.7</v>
+        <v>13588</v>
       </c>
       <c r="D136" t="n">
-        <v>181225.8</v>
+        <v>42921.8</v>
       </c>
       <c r="E136" t="n">
-        <v>17.1</v>
+        <v>16.3350047431901</v>
       </c>
       <c r="F136" t="n">
-        <v>23.2</v>
+        <v>24.7</v>
       </c>
       <c r="G136" t="n">
-        <v>9053.4</v>
+        <v>6323.2</v>
       </c>
       <c r="H136" t="n">
-        <v>84608.7</v>
+        <v>19039.5</v>
       </c>
       <c r="I136" t="n">
-        <v>22.9</v>
+        <v>22.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>13903.7</v>
+      </c>
+      <c r="K136" t="n">
+        <v>6316</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>19.8999850606616</v>
+        <v>17.1216008649613</v>
       </c>
       <c r="C137" t="n">
-        <v>15249</v>
+        <v>13649</v>
       </c>
       <c r="D137" t="n">
-        <v>15249</v>
+        <v>56570.8</v>
       </c>
       <c r="E137" t="n">
-        <v>19.8999850606616</v>
+        <v>16.5238204112572</v>
       </c>
       <c r="F137" t="n">
-        <v>27.8</v>
+        <v>23.4</v>
       </c>
       <c r="G137" t="n">
-        <v>6942.5</v>
-      </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
+        <v>6418.2</v>
+      </c>
+      <c r="H137" t="n">
+        <v>25434</v>
+      </c>
+      <c r="I137" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J137" t="n">
+        <v>13649</v>
+      </c>
+      <c r="K137" t="n">
+        <v>6394.5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>11.6335068346549</v>
+        <v>16.8998097746821</v>
       </c>
       <c r="C138" t="n">
-        <v>13769.1</v>
+        <v>14696.8</v>
       </c>
       <c r="D138" t="n">
-        <v>29018.1</v>
+        <v>71267.60000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>15.8300834653904</v>
+        <v>16.6011588270402</v>
       </c>
       <c r="F138" t="n">
-        <v>13</v>
+        <v>22.7</v>
       </c>
       <c r="G138" t="n">
-        <v>5781.1</v>
+        <v>6787.4</v>
       </c>
       <c r="H138" t="n">
-        <v>12723.5</v>
+        <v>32221.8</v>
       </c>
       <c r="I138" t="n">
-        <v>20.7</v>
+        <v>22.9</v>
+      </c>
+      <c r="J138" t="n">
+        <v>14696.8</v>
+      </c>
+      <c r="K138" t="n">
+        <v>6787.799999999999</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>17.4375993915508</v>
+        <v>17.6866831332412</v>
       </c>
       <c r="C139" t="n">
-        <v>13588</v>
+        <v>14565.1</v>
       </c>
       <c r="D139" t="n">
-        <v>42921.8</v>
+        <v>85832.7</v>
       </c>
       <c r="E139" t="n">
-        <v>16.3350047431901</v>
+        <v>16.783950365321</v>
       </c>
       <c r="F139" t="n">
-        <v>24.7</v>
+        <v>25.4</v>
       </c>
       <c r="G139" t="n">
-        <v>6323.2</v>
+        <v>6834</v>
       </c>
       <c r="H139" t="n">
-        <v>19039.5</v>
+        <v>390434.2</v>
       </c>
       <c r="I139" t="n">
-        <v>22.5</v>
+        <v>23.7</v>
+      </c>
+      <c r="J139" t="n">
+        <v>14565.09999999999</v>
+      </c>
+      <c r="K139" t="n">
+        <v>358212.4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>17.1216008649613</v>
+        <v>17.2</v>
       </c>
       <c r="C140" t="n">
-        <v>13649</v>
+        <v>14408</v>
       </c>
       <c r="D140" t="n">
-        <v>56570.8</v>
+        <v>100240.7</v>
       </c>
       <c r="E140" t="n">
-        <v>16.5238204112572</v>
+        <v>16.8</v>
       </c>
       <c r="F140" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="G140" t="n">
-        <v>6418.2</v>
+        <v>6689.6</v>
       </c>
       <c r="H140" t="n">
-        <v>25434</v>
+        <v>45721.8</v>
       </c>
       <c r="I140" t="n">
-        <v>22.9</v>
+        <v>23.7</v>
+      </c>
+      <c r="J140" t="n">
+        <v>14408</v>
+      </c>
+      <c r="K140" t="n">
+        <v>45721.8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>16.8998097746821</v>
+        <v>17</v>
       </c>
       <c r="C141" t="n">
-        <v>14696.8</v>
+        <v>14705</v>
       </c>
       <c r="D141" t="n">
-        <v>71267.60000000001</v>
+        <v>114945.7</v>
       </c>
       <c r="E141" t="n">
-        <v>16.6011588270402</v>
+        <v>16.9</v>
       </c>
       <c r="F141" t="n">
-        <v>22.7</v>
+        <v>22.1</v>
       </c>
       <c r="G141" t="n">
-        <v>6787.4</v>
+        <v>6902.2</v>
       </c>
       <c r="H141" t="n">
-        <v>32221.8</v>
+        <v>52614</v>
       </c>
       <c r="I141" t="n">
-        <v>22.9</v>
+        <v>23.5</v>
+      </c>
+      <c r="J141" t="n">
+        <v>14705</v>
+      </c>
+      <c r="K141" t="n">
+        <v>6892.199999999997</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>17.6866831332412</v>
+        <v>17.7</v>
       </c>
       <c r="C142" t="n">
-        <v>14565.1</v>
+        <v>15865.1</v>
       </c>
       <c r="D142" t="n">
-        <v>85832.7</v>
+        <v>130810.8</v>
       </c>
       <c r="E142" t="n">
-        <v>16.783950365321</v>
+        <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>25.4</v>
+        <v>24.7</v>
       </c>
       <c r="G142" t="n">
-        <v>6834</v>
+        <v>7549.6</v>
       </c>
       <c r="H142" t="n">
-        <v>390434.2</v>
+        <v>60165.4</v>
       </c>
       <c r="I142" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
+      </c>
+      <c r="J142" t="n">
+        <v>15865.10000000001</v>
+      </c>
+      <c r="K142" t="n">
+        <v>7551.400000000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>17.2</v>
+        <v>17.2497360421199</v>
       </c>
       <c r="C143" t="n">
-        <v>14408</v>
+        <v>16546.4</v>
       </c>
       <c r="D143" t="n">
-        <v>100240.7</v>
+        <v>147357.2</v>
       </c>
       <c r="E143" t="n">
-        <v>16.8</v>
+        <v>16.9981651201326</v>
       </c>
       <c r="F143" t="n">
-        <v>23.3</v>
+        <v>21.3</v>
       </c>
       <c r="G143" t="n">
-        <v>6689.6</v>
+        <v>7628.6</v>
       </c>
       <c r="H143" t="n">
-        <v>45721.8</v>
+        <v>67791.7</v>
       </c>
       <c r="I143" t="n">
-        <v>23.7</v>
+        <v>23</v>
+      </c>
+      <c r="J143" t="n">
+        <v>16546.40000000001</v>
+      </c>
+      <c r="K143" t="n">
+        <v>7626.299999999996</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="C144" t="n">
+        <v>16128.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>163486.1</v>
+      </c>
+      <c r="E144" t="n">
         <v>17</v>
       </c>
-      <c r="C144" t="n">
-        <v>14705</v>
-      </c>
-      <c r="D144" t="n">
-        <v>114945.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>16.9</v>
-      </c>
       <c r="F144" t="n">
-        <v>22.1</v>
+        <v>21.5</v>
       </c>
       <c r="G144" t="n">
-        <v>6902.2</v>
+        <v>7744.8</v>
       </c>
       <c r="H144" t="n">
-        <v>52614</v>
+        <v>75547.5</v>
       </c>
       <c r="I144" t="n">
-        <v>23.5</v>
+        <v>22.8</v>
+      </c>
+      <c r="J144" t="n">
+        <v>16128.89999999999</v>
+      </c>
+      <c r="K144" t="n">
+        <v>7755.800000000003</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>17.7</v>
+        <v>18.1</v>
       </c>
       <c r="C145" t="n">
-        <v>15865.1</v>
+        <v>17739.7</v>
       </c>
       <c r="D145" t="n">
-        <v>130810.8</v>
+        <v>181225.8</v>
       </c>
       <c r="E145" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="F145" t="n">
-        <v>24.7</v>
+        <v>23.2</v>
       </c>
       <c r="G145" t="n">
-        <v>7549.6</v>
+        <v>9053.4</v>
       </c>
       <c r="H145" t="n">
-        <v>60165.4</v>
+        <v>84608.7</v>
       </c>
       <c r="I145" t="n">
-        <v>23.5</v>
+        <v>22.9</v>
+      </c>
+      <c r="J145" t="n">
+        <v>17739.69999999998</v>
+      </c>
+      <c r="K145" t="n">
+        <v>9061.199999999997</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="C146" t="n">
-        <v>18933.8</v>
-      </c>
+          <t>2012-02</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>168355.8</v>
+        <v>33668.6</v>
       </c>
       <c r="E146" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F146" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="G146" t="n">
-        <v>9022.799999999999</v>
-      </c>
+        <v>14.7</v>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>80600.7</v>
+        <v>15238.3</v>
       </c>
       <c r="I146" t="n">
-        <v>14.5</v>
+        <v>14.9</v>
+      </c>
+      <c r="J146" t="n">
+        <v>33668.6</v>
+      </c>
+      <c r="K146" t="n">
+        <v>15238.3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C147" t="n">
-        <v>18476.7</v>
+        <v>15650.2</v>
       </c>
       <c r="D147" t="n">
-        <v>186832.5</v>
+        <v>49318.8</v>
       </c>
       <c r="E147" t="n">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
       <c r="F147" t="n">
-        <v>15.1</v>
+        <v>16.9</v>
       </c>
       <c r="G147" t="n">
-        <v>9394.5</v>
+        <v>7686</v>
       </c>
       <c r="H147" t="n">
-        <v>90346.60000000001</v>
+        <v>22920.6</v>
       </c>
       <c r="I147" t="n">
-        <v>14.5</v>
+        <v>15.6</v>
+      </c>
+      <c r="J147" t="n">
+        <v>15650.2</v>
+      </c>
+      <c r="K147" t="n">
+        <v>7682.299999999999</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>15.2</v>
+        <v>14.0788760372875</v>
       </c>
       <c r="C148" t="n">
-        <v>20334.2</v>
+        <v>15603.1</v>
       </c>
       <c r="D148" t="n">
-        <v>207166.7</v>
+        <v>64921.9</v>
       </c>
       <c r="E148" t="n">
-        <v>14.3</v>
+        <v>14.6582849452775</v>
       </c>
       <c r="F148" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="G148" t="n">
+        <v>7482.6</v>
+      </c>
+      <c r="H148" t="n">
+        <v>30412.7</v>
+      </c>
+      <c r="I148" t="n">
         <v>15.3</v>
       </c>
-      <c r="G148" t="n">
-        <v>10773.4</v>
-      </c>
-      <c r="H148" t="n">
-        <v>101129.3</v>
-      </c>
-      <c r="I148" t="n">
-        <v>14.6</v>
+      <c r="J148" t="n">
+        <v>15603.1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>7492.100000000002</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="inlineStr"/>
+          <t>2012-05</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>13.7935964380783</v>
+      </c>
+      <c r="C149" t="n">
+        <v>16714.8</v>
+      </c>
       <c r="D149" t="n">
-        <v>33668.6</v>
+        <v>81636.7</v>
       </c>
       <c r="E149" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
+        <v>14.4801751768316</v>
+      </c>
+      <c r="F149" t="n">
+        <v>14</v>
+      </c>
+      <c r="G149" t="n">
+        <v>7922.5</v>
+      </c>
       <c r="H149" t="n">
-        <v>15238.3</v>
+        <v>38321.3</v>
       </c>
       <c r="I149" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>16714.8</v>
+      </c>
+      <c r="K149" t="n">
+        <v>7908.600000000002</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>15.2</v>
+        <v>13.7</v>
       </c>
       <c r="C150" t="n">
-        <v>15650.2</v>
+        <v>16584.9</v>
       </c>
       <c r="D150" t="n">
-        <v>49318.8</v>
+        <v>98221.60000000001</v>
       </c>
       <c r="E150" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F150" t="n">
-        <v>16.9</v>
+        <v>14</v>
       </c>
       <c r="G150" t="n">
-        <v>7686</v>
+        <v>8222.799999999999</v>
       </c>
       <c r="H150" t="n">
-        <v>22920.6</v>
+        <v>46592.1</v>
       </c>
       <c r="I150" t="n">
-        <v>15.6</v>
+        <v>14.9</v>
+      </c>
+      <c r="J150" t="n">
+        <v>16584.90000000001</v>
+      </c>
+      <c r="K150" t="n">
+        <v>8270.799999999996</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>14.0788760372875</v>
+        <v>13.1</v>
       </c>
       <c r="C151" t="n">
-        <v>15603.1</v>
+        <v>16314.9</v>
       </c>
       <c r="D151" t="n">
-        <v>64921.9</v>
+        <v>114536.5</v>
       </c>
       <c r="E151" t="n">
-        <v>14.6582849452775</v>
+        <v>14.2</v>
       </c>
       <c r="F151" t="n">
+        <v>13</v>
+      </c>
+      <c r="G151" t="n">
+        <v>7812</v>
+      </c>
+      <c r="H151" t="n">
+        <v>54264</v>
+      </c>
+      <c r="I151" t="n">
         <v>14.6</v>
       </c>
-      <c r="G151" t="n">
-        <v>7482.6</v>
-      </c>
-      <c r="H151" t="n">
-        <v>30412.7</v>
-      </c>
-      <c r="I151" t="n">
-        <v>15.3</v>
+      <c r="J151" t="n">
+        <v>16314.89999999999</v>
+      </c>
+      <c r="K151" t="n">
+        <v>7671.900000000001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>13.7935964380783</v>
+        <v>13.2</v>
       </c>
       <c r="C152" t="n">
-        <v>16714.8</v>
+        <v>16658.9</v>
       </c>
       <c r="D152" t="n">
-        <v>81636.7</v>
+        <v>131195.4</v>
       </c>
       <c r="E152" t="n">
-        <v>14.4801751768316</v>
+        <v>14.1</v>
       </c>
       <c r="F152" t="n">
-        <v>14</v>
+        <v>13.1</v>
       </c>
       <c r="G152" t="n">
-        <v>7922.5</v>
+        <v>8148.7</v>
       </c>
       <c r="H152" t="n">
-        <v>38321.3</v>
+        <v>62621.5</v>
       </c>
       <c r="I152" t="n">
-        <v>15.1</v>
+        <v>14.4</v>
+      </c>
+      <c r="J152" t="n">
+        <v>16658.89999999999</v>
+      </c>
+      <c r="K152" t="n">
+        <v>8357.5</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="C153" t="n">
-        <v>16584.9</v>
+        <v>18226.6</v>
       </c>
       <c r="D153" t="n">
-        <v>98221.60000000001</v>
+        <v>149422</v>
       </c>
       <c r="E153" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="G153" t="n">
+        <v>8930.700000000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>71580.10000000001</v>
+      </c>
+      <c r="I153" t="n">
         <v>14.4</v>
       </c>
-      <c r="F153" t="n">
-        <v>14</v>
-      </c>
-      <c r="G153" t="n">
-        <v>8222.799999999999</v>
-      </c>
-      <c r="H153" t="n">
-        <v>46592.1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>14.9</v>
+      <c r="J153" t="n">
+        <v>18226.60000000001</v>
+      </c>
+      <c r="K153" t="n">
+        <v>8958.600000000006</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>13.1</v>
+        <v>14.5</v>
       </c>
       <c r="C154" t="n">
-        <v>16314.9</v>
+        <v>18933.8</v>
       </c>
       <c r="D154" t="n">
-        <v>114536.5</v>
+        <v>168355.8</v>
       </c>
       <c r="E154" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="F154" t="n">
-        <v>13</v>
+        <v>14.8</v>
       </c>
       <c r="G154" t="n">
-        <v>7812</v>
+        <v>9022.799999999999</v>
       </c>
       <c r="H154" t="n">
-        <v>54264</v>
+        <v>80600.7</v>
       </c>
       <c r="I154" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
+      </c>
+      <c r="J154" t="n">
+        <v>18933.79999999999</v>
+      </c>
+      <c r="K154" t="n">
+        <v>9020.599999999991</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>13.2</v>
+        <v>14.9</v>
       </c>
       <c r="C155" t="n">
-        <v>16658.9</v>
+        <v>18476.7</v>
       </c>
       <c r="D155" t="n">
-        <v>131195.4</v>
+        <v>186832.5</v>
       </c>
       <c r="E155" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="F155" t="n">
-        <v>13.1</v>
+        <v>15.1</v>
       </c>
       <c r="G155" t="n">
-        <v>8148.7</v>
+        <v>9394.5</v>
       </c>
       <c r="H155" t="n">
-        <v>62621.5</v>
+        <v>90346.60000000001</v>
       </c>
       <c r="I155" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
+      </c>
+      <c r="J155" t="n">
+        <v>18476.70000000001</v>
+      </c>
+      <c r="K155" t="n">
+        <v>9745.900000000009</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
       <c r="C156" t="n">
-        <v>18226.6</v>
+        <v>20334.2</v>
       </c>
       <c r="D156" t="n">
-        <v>149422</v>
+        <v>207166.7</v>
       </c>
       <c r="E156" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="F156" t="n">
-        <v>14.7</v>
+        <v>15.3</v>
       </c>
       <c r="G156" t="n">
-        <v>8930.700000000001</v>
+        <v>10773.4</v>
       </c>
       <c r="H156" t="n">
-        <v>71580.10000000001</v>
+        <v>101129.3</v>
       </c>
       <c r="I156" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
+      </c>
+      <c r="J156" t="n">
+        <v>20334.20000000001</v>
+      </c>
+      <c r="K156" t="n">
+        <v>10782.7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>13.320158762875</v>
-      </c>
-      <c r="C157" t="n">
-        <v>21491.281429538</v>
-      </c>
+          <t>2013-02</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>190308.313344072</v>
+        <v>37809.8378</v>
       </c>
       <c r="E157" t="n">
-        <v>12.9517505627139</v>
-      </c>
-      <c r="F157" t="n">
-        <v>12.3975783129726</v>
-      </c>
-      <c r="G157" t="n">
-        <v>10578.9</v>
-      </c>
+        <v>12.2998646808744</v>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>95158.60000000001</v>
+        <v>18001.4</v>
       </c>
       <c r="I157" t="n">
-        <v>11.2</v>
+        <v>10.2</v>
+      </c>
+      <c r="J157" t="n">
+        <v>37809.8378</v>
+      </c>
+      <c r="K157" t="n">
+        <v>18001.4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>13.7212512875942</v>
+        <v>12.6002897792189</v>
       </c>
       <c r="C158" t="n">
-        <v>21011.9344366549</v>
+        <v>17641.2</v>
       </c>
       <c r="D158" t="n">
-        <v>211320.247780727</v>
+        <v>55451.0378</v>
       </c>
       <c r="E158" t="n">
-        <v>13.0277967756879</v>
+        <v>12.3952679322272</v>
       </c>
       <c r="F158" t="n">
-        <v>13.0603692498521</v>
+        <v>10.5</v>
       </c>
       <c r="G158" t="n">
-        <v>11055</v>
+        <v>9075.700000000001</v>
       </c>
       <c r="H158" t="n">
-        <v>106233.5</v>
+        <v>27045.3</v>
       </c>
       <c r="I158" t="n">
-        <v>11.4</v>
+        <v>10.2873806138699</v>
+      </c>
+      <c r="J158" t="n">
+        <v>17641.2</v>
+      </c>
+      <c r="K158" t="n">
+        <v>9043.899999999998</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>13.6</v>
+        <v>12.8</v>
       </c>
       <c r="C159" t="n">
-        <v>23059.7</v>
+        <v>17600.2968</v>
       </c>
       <c r="D159" t="n">
-        <v>234380</v>
+        <v>73051.3346</v>
       </c>
       <c r="E159" t="n">
-        <v>13.1</v>
+        <v>12.4925144317217</v>
       </c>
       <c r="F159" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="G159" t="n">
-        <v>12641.4</v>
+        <v>8950.299999999999</v>
       </c>
       <c r="H159" t="n">
-        <v>118884.7</v>
+        <v>36004.9</v>
       </c>
       <c r="I159" t="n">
-        <v>11.6</v>
+        <v>10.4</v>
+      </c>
+      <c r="J159" t="n">
+        <v>17600.2968</v>
+      </c>
+      <c r="K159" t="n">
+        <v>8959.600000000002</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="inlineStr"/>
+          <t>2013-05</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>12.8921964194985</v>
+      </c>
+      <c r="C160" t="n">
+        <v>18886.3</v>
+      </c>
       <c r="D160" t="n">
-        <v>37809.8378</v>
+        <v>91937.6346</v>
       </c>
       <c r="E160" t="n">
-        <v>12.2998646808744</v>
-      </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
+        <v>12.5743880166121</v>
+      </c>
+      <c r="F160" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="G160" t="n">
+        <v>9371.1</v>
+      </c>
       <c r="H160" t="n">
-        <v>18001.4</v>
+        <v>45392.4</v>
       </c>
       <c r="I160" t="n">
-        <v>10.2</v>
+        <v>10.5</v>
+      </c>
+      <c r="J160" t="n">
+        <v>18886.3</v>
+      </c>
+      <c r="K160" t="n">
+        <v>9387.5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>12.6002897792189</v>
+        <v>13.31247</v>
       </c>
       <c r="C161" t="n">
-        <v>17641.2</v>
+        <v>18826.682611566</v>
       </c>
       <c r="D161" t="n">
-        <v>55451.0378</v>
+        <v>110764.317211566</v>
       </c>
       <c r="E161" t="n">
-        <v>12.3952679322272</v>
+        <v>12.6991612725991</v>
       </c>
       <c r="F161" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G161" t="n">
+        <v>9764.4</v>
+      </c>
+      <c r="H161" t="n">
+        <v>55251.1</v>
+      </c>
+      <c r="I161" t="n">
         <v>10.5</v>
       </c>
-      <c r="G161" t="n">
-        <v>9075.700000000001</v>
-      </c>
-      <c r="H161" t="n">
-        <v>27045.3</v>
-      </c>
-      <c r="I161" t="n">
-        <v>10.2873806138699</v>
+      <c r="J161" t="n">
+        <v>18826.68261156599</v>
+      </c>
+      <c r="K161" t="n">
+        <v>9858.699999999997</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>12.8</v>
+        <v>13.212342647423</v>
       </c>
       <c r="C162" t="n">
-        <v>17600.2968</v>
+        <v>18513.1615437625</v>
       </c>
       <c r="D162" t="n">
-        <v>73051.3346</v>
+        <v>129277.478755328</v>
       </c>
       <c r="E162" t="n">
-        <v>12.4925144317217</v>
+        <v>12.7723657284913</v>
       </c>
       <c r="F162" t="n">
-        <v>11.5</v>
+        <v>11.1543021834945</v>
       </c>
       <c r="G162" t="n">
-        <v>8950.299999999999</v>
+        <v>9158.9</v>
       </c>
       <c r="H162" t="n">
-        <v>36004.9</v>
+        <v>64416.5</v>
       </c>
       <c r="I162" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
+      </c>
+      <c r="J162" t="n">
+        <v>18513.16154376201</v>
+      </c>
+      <c r="K162" t="n">
+        <v>9165.400000000001</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>12.8921964194985</v>
+        <v>13.3701232684953</v>
       </c>
       <c r="C163" t="n">
-        <v>18886.3</v>
+        <v>18886.2154651754</v>
       </c>
       <c r="D163" t="n">
-        <v>91937.6346</v>
+        <v>148163.694220504</v>
       </c>
       <c r="E163" t="n">
-        <v>12.5743880166121</v>
+        <v>12.848210258059</v>
       </c>
       <c r="F163" t="n">
-        <v>10.7</v>
+        <v>11.4576410567305</v>
       </c>
       <c r="G163" t="n">
-        <v>9371.1</v>
+        <v>9490.32</v>
       </c>
       <c r="H163" t="n">
-        <v>45392.4</v>
+        <v>73935.32000000001</v>
       </c>
       <c r="I163" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
+      </c>
+      <c r="J163" t="n">
+        <v>18886.21546517599</v>
+      </c>
+      <c r="K163" t="n">
+        <v>9518.820000000007</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>13.31247</v>
+        <v>13.3</v>
       </c>
       <c r="C164" t="n">
-        <v>18826.682611566</v>
+        <v>20653.3</v>
       </c>
       <c r="D164" t="n">
-        <v>110764.317211566</v>
+        <v>168817</v>
       </c>
       <c r="E164" t="n">
-        <v>12.6991612725991</v>
+        <v>12.9</v>
       </c>
       <c r="F164" t="n">
-        <v>11.5</v>
+        <v>12.3727688924739</v>
       </c>
       <c r="G164" t="n">
-        <v>9764.4</v>
+        <v>10526</v>
       </c>
       <c r="H164" t="n">
-        <v>55251.1</v>
+        <v>84570.5</v>
       </c>
       <c r="I164" t="n">
-        <v>10.5</v>
+        <v>11</v>
+      </c>
+      <c r="J164" t="n">
+        <v>20653.305779496</v>
+      </c>
+      <c r="K164" t="n">
+        <v>10635.17999999999</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>13.212342647423</v>
+        <v>13.320158762875</v>
       </c>
       <c r="C165" t="n">
-        <v>18513.1615437625</v>
+        <v>21491.281429538</v>
       </c>
       <c r="D165" t="n">
-        <v>129277.478755328</v>
+        <v>190308.313344072</v>
       </c>
       <c r="E165" t="n">
-        <v>12.7723657284913</v>
+        <v>12.9517505627139</v>
       </c>
       <c r="F165" t="n">
-        <v>11.1543021834945</v>
+        <v>12.3975783129726</v>
       </c>
       <c r="G165" t="n">
-        <v>9158.9</v>
+        <v>10578.9</v>
       </c>
       <c r="H165" t="n">
-        <v>64416.5</v>
+        <v>95158.60000000001</v>
       </c>
       <c r="I165" t="n">
-        <v>10.7</v>
+        <v>11.2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>21491.313344072</v>
+      </c>
+      <c r="K165" t="n">
+        <v>10588.10000000001</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>13.3701232684953</v>
+        <v>13.7212512875942</v>
       </c>
       <c r="C166" t="n">
-        <v>18886.2154651754</v>
+        <v>21011.9344366549</v>
       </c>
       <c r="D166" t="n">
-        <v>148163.694220504</v>
+        <v>211320.247780727</v>
       </c>
       <c r="E166" t="n">
-        <v>12.848210258059</v>
+        <v>13.0277967756879</v>
       </c>
       <c r="F166" t="n">
-        <v>11.4576410567305</v>
+        <v>13.0603692498521</v>
       </c>
       <c r="G166" t="n">
-        <v>9490.32</v>
+        <v>11055</v>
       </c>
       <c r="H166" t="n">
-        <v>73935.32000000001</v>
+        <v>106233.5</v>
       </c>
       <c r="I166" t="n">
-        <v>10.8</v>
+        <v>11.4</v>
+      </c>
+      <c r="J166" t="n">
+        <v>21011.93443665499</v>
+      </c>
+      <c r="K166" t="n">
+        <v>11074.89999999999</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="C167" t="n">
-        <v>20653.3</v>
+        <v>23059.7</v>
       </c>
       <c r="D167" t="n">
-        <v>168817</v>
+        <v>234380</v>
       </c>
       <c r="E167" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="F167" t="n">
-        <v>12.3727688924739</v>
+        <v>13</v>
       </c>
       <c r="G167" t="n">
-        <v>10526</v>
+        <v>12641.4</v>
       </c>
       <c r="H167" t="n">
-        <v>84570.5</v>
+        <v>118884.7</v>
       </c>
       <c r="I167" t="n">
-        <v>11</v>
+        <v>11.6</v>
+      </c>
+      <c r="J167" t="n">
+        <v>23059.75221927301</v>
+      </c>
+      <c r="K167" t="n">
+        <v>12651.2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>11.5207686074349</v>
-      </c>
-      <c r="C168" t="n">
-        <v>23967.2422338077</v>
-      </c>
+          <t>2014-02</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>213118.065564355</v>
+        <v>42280.690505326</v>
       </c>
       <c r="E168" t="n">
-        <v>11.9856835571042</v>
-      </c>
-      <c r="F168" t="n">
-        <v>8.283610230140599</v>
-      </c>
-      <c r="G168" t="n">
-        <v>11744.56014</v>
-      </c>
+        <v>11.8245752044088</v>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>106570.40527</v>
+        <v>20132.72763</v>
       </c>
       <c r="I168" t="n">
-        <v>9.38517903378791</v>
+        <v>9.464507726414309</v>
+      </c>
+      <c r="J168" t="n">
+        <v>42280.690505326</v>
+      </c>
+      <c r="K168" t="n">
+        <v>20132.72763</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>11.7208012400021</v>
+        <v>12.2403995610324</v>
       </c>
       <c r="C169" t="n">
-        <v>23474.7015086548</v>
+        <v>19800.5533673608</v>
       </c>
       <c r="D169" t="n">
-        <v>236592.76707301</v>
+        <v>62081.2438726868</v>
       </c>
       <c r="E169" t="n">
-        <v>11.9593458543103</v>
+        <v>11.9568656164752</v>
       </c>
       <c r="F169" t="n">
-        <v>8.710560040709201</v>
+        <v>10.1779304059836</v>
       </c>
       <c r="G169" t="n">
-        <v>11793.9</v>
+        <v>10230.7</v>
       </c>
       <c r="H169" t="n">
-        <v>118450.5</v>
+        <v>30274.6</v>
       </c>
       <c r="I169" t="n">
-        <v>9.314587186684291</v>
+        <v>9.70196321698775</v>
+      </c>
+      <c r="J169" t="n">
+        <v>19800.5533673608</v>
+      </c>
+      <c r="K169" t="n">
+        <v>10141.87237</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>11.889118019286</v>
+        <v>11.9365297343189</v>
       </c>
       <c r="C170" t="n">
-        <v>25801.3149107472</v>
+        <v>19701.1614608604</v>
       </c>
       <c r="D170" t="n">
-        <v>262394.081983757</v>
+        <v>81782.4053335472</v>
       </c>
       <c r="E170" t="n">
-        <v>11.9524364153743</v>
+        <v>11.9519660815987</v>
       </c>
       <c r="F170" t="n">
-        <v>9.370480985122921</v>
+        <v>9.352265336247401</v>
       </c>
       <c r="G170" t="n">
-        <v>14274.17323</v>
+        <v>10009.6</v>
       </c>
       <c r="H170" t="n">
-        <v>133179.25804</v>
+        <v>40248.5</v>
       </c>
       <c r="I170" t="n">
-        <v>9.320584299042761</v>
+        <v>9.615368922479689</v>
+      </c>
+      <c r="J170" t="n">
+        <v>19701.1614608604</v>
+      </c>
+      <c r="K170" t="n">
+        <v>9973.900000000001</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
+          <t>2014-05</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>12.5143183417626</v>
+      </c>
+      <c r="C171" t="n">
+        <v>21249.7917049803</v>
+      </c>
       <c r="D171" t="n">
-        <v>42280.690505326</v>
+        <v>103032.197038528</v>
       </c>
       <c r="E171" t="n">
-        <v>11.8245752044088</v>
-      </c>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
+        <v>12.0674873644482</v>
+      </c>
+      <c r="F171" t="n">
+        <v>9.85236778087541</v>
+      </c>
+      <c r="G171" t="n">
+        <v>10559.8</v>
+      </c>
       <c r="H171" t="n">
-        <v>20132.72763</v>
+        <v>50857</v>
       </c>
       <c r="I171" t="n">
-        <v>9.464507726414309</v>
+        <v>9.664357847701851</v>
+      </c>
+      <c r="J171" t="n">
+        <v>21249.7917049808</v>
+      </c>
+      <c r="K171" t="n">
+        <v>10608.5</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>12.2403995610324</v>
+        <v>12.4279301489094</v>
       </c>
       <c r="C172" t="n">
-        <v>19800.5533673608</v>
+        <v>21166.4495758883</v>
       </c>
       <c r="D172" t="n">
-        <v>62081.2438726868</v>
+        <v>124198.666614416</v>
       </c>
       <c r="E172" t="n">
-        <v>11.9568656164752</v>
+        <v>12.1287701139257</v>
       </c>
       <c r="F172" t="n">
-        <v>10.1779304059836</v>
+        <v>10.2239685155603</v>
       </c>
       <c r="G172" t="n">
-        <v>10230.7</v>
+        <v>11102.8</v>
       </c>
       <c r="H172" t="n">
-        <v>30274.6</v>
+        <v>62102.1</v>
       </c>
       <c r="I172" t="n">
-        <v>9.70196321698775</v>
+        <v>9.76399151396234</v>
+      </c>
+      <c r="J172" t="n">
+        <v>21166.469575888</v>
+      </c>
+      <c r="K172" t="n">
+        <v>11245.1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>11.9365297343189</v>
+        <v>12.2217400092972</v>
       </c>
       <c r="C173" t="n">
-        <v>19701.1614608604</v>
+        <v>20775.7920151423</v>
       </c>
       <c r="D173" t="n">
-        <v>81782.4053335472</v>
+        <v>144974.458629559</v>
       </c>
       <c r="E173" t="n">
-        <v>11.9519660815987</v>
+        <v>12.1420838535522</v>
       </c>
       <c r="F173" t="n">
-        <v>9.352265336247401</v>
+        <v>9.73773876296322</v>
       </c>
       <c r="G173" t="n">
-        <v>10009.6</v>
+        <v>10359.88422</v>
       </c>
       <c r="H173" t="n">
-        <v>40248.5</v>
+        <v>72417.73514999999</v>
       </c>
       <c r="I173" t="n">
-        <v>9.615368922479689</v>
+        <v>9.760233177398179</v>
+      </c>
+      <c r="J173" t="n">
+        <v>20775.792015143</v>
+      </c>
+      <c r="K173" t="n">
+        <v>10315.63514999999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>12.5143183417626</v>
+        <v>11.9013542012317</v>
       </c>
       <c r="C174" t="n">
-        <v>21249.7917049803</v>
+        <v>21133.9308628937</v>
       </c>
       <c r="D174" t="n">
-        <v>103032.197038528</v>
+        <v>166108.389492452</v>
       </c>
       <c r="E174" t="n">
-        <v>12.0674873644482</v>
+        <v>12.1113983870046</v>
       </c>
       <c r="F174" t="n">
-        <v>9.85236778087541</v>
+        <v>9.010527608513931</v>
       </c>
       <c r="G174" t="n">
-        <v>10559.8</v>
+        <v>10466.09332</v>
       </c>
       <c r="H174" t="n">
-        <v>50857</v>
+        <v>83023.56567</v>
       </c>
       <c r="I174" t="n">
-        <v>9.664357847701851</v>
+        <v>9.66365500120693</v>
+      </c>
+      <c r="J174" t="n">
+        <v>21133.930862893</v>
+      </c>
+      <c r="K174" t="n">
+        <v>10605.83052</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>12.4279301489094</v>
+        <v>11.5676031615714</v>
       </c>
       <c r="C175" t="n">
-        <v>21166.4495758883</v>
+        <v>23042.4338380953</v>
       </c>
       <c r="D175" t="n">
-        <v>124198.666614416</v>
+        <v>189150.823330548</v>
       </c>
       <c r="E175" t="n">
-        <v>12.1287701139257</v>
+        <v>12.0448696351369</v>
       </c>
       <c r="F175" t="n">
-        <v>10.2239685155603</v>
+        <v>8.547154046942421</v>
       </c>
       <c r="G175" t="n">
-        <v>11102.8</v>
+        <v>11581.7757</v>
       </c>
       <c r="H175" t="n">
-        <v>62102.1</v>
+        <v>94232.82199</v>
       </c>
       <c r="I175" t="n">
-        <v>9.76399151396234</v>
+        <v>9.524732547728551</v>
+      </c>
+      <c r="J175" t="n">
+        <v>23042.43383809601</v>
+      </c>
+      <c r="K175" t="n">
+        <v>11209.25632</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>12.2217400092972</v>
+        <v>11.5207686074349</v>
       </c>
       <c r="C176" t="n">
-        <v>20775.7920151423</v>
+        <v>23967.2422338077</v>
       </c>
       <c r="D176" t="n">
-        <v>144974.458629559</v>
+        <v>213118.065564355</v>
       </c>
       <c r="E176" t="n">
-        <v>12.1420838535522</v>
+        <v>11.9856835571042</v>
       </c>
       <c r="F176" t="n">
-        <v>9.73773876296322</v>
+        <v>8.283610230140599</v>
       </c>
       <c r="G176" t="n">
-        <v>10359.88422</v>
+        <v>11744.56014</v>
       </c>
       <c r="H176" t="n">
-        <v>72417.73514999999</v>
+        <v>106570.40527</v>
       </c>
       <c r="I176" t="n">
-        <v>9.760233177398179</v>
+        <v>9.38517903378791</v>
+      </c>
+      <c r="J176" t="n">
+        <v>23967.24223380699</v>
+      </c>
+      <c r="K176" t="n">
+        <v>12337.58328000001</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>11.9013542012317</v>
+        <v>11.7208012400021</v>
       </c>
       <c r="C177" t="n">
-        <v>21133.9308628937</v>
+        <v>23474.7015086548</v>
       </c>
       <c r="D177" t="n">
-        <v>166108.389492452</v>
+        <v>236592.76707301</v>
       </c>
       <c r="E177" t="n">
-        <v>12.1113983870046</v>
+        <v>11.9593458543103</v>
       </c>
       <c r="F177" t="n">
-        <v>9.010527608513931</v>
+        <v>8.710560040709201</v>
       </c>
       <c r="G177" t="n">
-        <v>10466.09332</v>
+        <v>11793.9</v>
       </c>
       <c r="H177" t="n">
-        <v>83023.56567</v>
+        <v>118450.5</v>
       </c>
       <c r="I177" t="n">
-        <v>9.66365500120693</v>
+        <v>9.314587186684291</v>
+      </c>
+      <c r="J177" t="n">
+        <v>23474.70150865501</v>
+      </c>
+      <c r="K177" t="n">
+        <v>11880.09473</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>11.5676031615714</v>
+        <v>11.889118019286</v>
       </c>
       <c r="C178" t="n">
-        <v>23042.4338380953</v>
+        <v>25801.3149107472</v>
       </c>
       <c r="D178" t="n">
-        <v>189150.823330548</v>
+        <v>262394.081983757</v>
       </c>
       <c r="E178" t="n">
-        <v>12.0448696351369</v>
+        <v>11.9524364153743</v>
       </c>
       <c r="F178" t="n">
-        <v>8.547154046942421</v>
+        <v>9.370480985122921</v>
       </c>
       <c r="G178" t="n">
-        <v>11581.7757</v>
+        <v>14274.17323</v>
       </c>
       <c r="H178" t="n">
-        <v>94232.82199</v>
+        <v>133179.25804</v>
       </c>
       <c r="I178" t="n">
-        <v>9.524732547728551</v>
+        <v>9.320584299042761</v>
+      </c>
+      <c r="J178" t="n">
+        <v>25801.31491074697</v>
+      </c>
+      <c r="K178" t="n">
+        <v>14728.75803999999</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
-        </is>
-      </c>
-      <c r="B179" t="n">
-        <v>11.0234013690708</v>
-      </c>
-      <c r="C179" t="n">
-        <v>28278.8896231768</v>
-      </c>
+          <t>2015-02</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>244358.776530102</v>
+        <v>47992.5090274846</v>
       </c>
       <c r="E179" t="n">
-        <v>10.5790894766959</v>
-      </c>
-      <c r="F179" t="n">
-        <v>8.3509911731893</v>
-      </c>
-      <c r="G179" t="n">
-        <v>12612.202</v>
-      </c>
+        <v>10.7142199272758</v>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>113833.22774</v>
+        <v>21840.37763</v>
       </c>
       <c r="I179" t="n">
-        <v>7.61182769039313</v>
+        <v>8.145738630493749</v>
+      </c>
+      <c r="J179" t="n">
+        <v>47992.5090274846</v>
+      </c>
+      <c r="K179" t="n">
+        <v>21840.37763</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>11.1722283930183</v>
+        <v>10.2445321046384</v>
       </c>
       <c r="C180" t="n">
-        <v>27937.3458344569</v>
+        <v>22722.8149340663</v>
       </c>
       <c r="D180" t="n">
-        <v>272296.122364558</v>
+        <v>70715.32396155089</v>
       </c>
       <c r="E180" t="n">
-        <v>10.639653483902</v>
+        <v>10.5628602812069</v>
       </c>
       <c r="F180" t="n">
-        <v>8.84570389800912</v>
+        <v>7.1</v>
       </c>
       <c r="G180" t="n">
-        <v>13502.72989</v>
+        <v>10833.47372</v>
       </c>
       <c r="H180" t="n">
-        <v>126906.01086</v>
+        <v>32471.56115</v>
       </c>
       <c r="I180" t="n">
-        <v>7.73966289788845</v>
+        <v>7.8</v>
+      </c>
+      <c r="J180" t="n">
+        <v>22722.81493406629</v>
+      </c>
+      <c r="K180" t="n">
+        <v>10631.18352</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>11.1</v>
+        <v>10.0024453210463</v>
       </c>
       <c r="C181" t="n">
-        <v>28634.6</v>
+        <v>22386.7143520077</v>
       </c>
       <c r="D181" t="n">
-        <v>300930.8</v>
+        <v>93102.0383135586</v>
       </c>
       <c r="E181" t="n">
-        <v>10.7</v>
+        <v>10.427585722282</v>
       </c>
       <c r="F181" t="n">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="G181" t="n">
-        <v>15367</v>
+        <v>10564.19598</v>
       </c>
       <c r="H181" t="n">
-        <v>142558</v>
+        <v>43014.60987</v>
       </c>
       <c r="I181" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
+      </c>
+      <c r="J181" t="n">
+        <v>22386.71435200771</v>
+      </c>
+      <c r="K181" t="n">
+        <v>10543.04872</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
+          <t>2015-05</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>10.1302089024453</v>
+      </c>
+      <c r="C182" t="n">
+        <v>24194.8230632128</v>
+      </c>
       <c r="D182" t="n">
-        <v>47992.5090274846</v>
+        <v>117296.861376771</v>
       </c>
       <c r="E182" t="n">
-        <v>10.7142199272758</v>
-      </c>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
+        <v>10.3661144132291</v>
+      </c>
+      <c r="F182" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G182" t="n">
+        <v>11180.12837</v>
+      </c>
       <c r="H182" t="n">
-        <v>21840.37763</v>
+        <v>54230.014</v>
       </c>
       <c r="I182" t="n">
-        <v>8.145738630493749</v>
+        <v>7.25044190819206</v>
+      </c>
+      <c r="J182" t="n">
+        <v>24194.8230632124</v>
+      </c>
+      <c r="K182" t="n">
+        <v>11215.40413</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>10.2445321046384</v>
+        <v>10.6319519945095</v>
       </c>
       <c r="C183" t="n">
-        <v>22722.8149340663</v>
+        <v>24280.2708775</v>
       </c>
       <c r="D183" t="n">
-        <v>70715.32396155089</v>
+        <v>141577.132254271</v>
       </c>
       <c r="E183" t="n">
-        <v>10.5628602812069</v>
+        <v>10.4116143693684</v>
       </c>
       <c r="F183" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="G183" t="n">
-        <v>10833.47372</v>
+        <v>12009.40586</v>
       </c>
       <c r="H183" t="n">
-        <v>32471.56115</v>
+        <v>66255.65816000001</v>
       </c>
       <c r="I183" t="n">
-        <v>7.8</v>
+        <v>7.35978222656072</v>
+      </c>
+      <c r="J183" t="n">
+        <v>24280.27087750001</v>
+      </c>
+      <c r="K183" t="n">
+        <v>12025.64416</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>10.0024453210463</v>
+        <v>10.5123230528975</v>
       </c>
       <c r="C184" t="n">
-        <v>22386.7143520077</v>
+        <v>24338.7776183605</v>
       </c>
       <c r="D184" t="n">
-        <v>93102.0383135586</v>
+        <v>165915.909872632</v>
       </c>
       <c r="E184" t="n">
-        <v>10.427585722282</v>
+        <v>10.4263761844458</v>
       </c>
       <c r="F184" t="n">
-        <v>6.7</v>
+        <v>7.25765053597623</v>
       </c>
       <c r="G184" t="n">
-        <v>10564.19598</v>
+        <v>11005.34306</v>
       </c>
       <c r="H184" t="n">
-        <v>43014.60987</v>
+        <v>77264.77789</v>
       </c>
       <c r="I184" t="n">
-        <v>7.5</v>
+        <v>7.34516466031907</v>
+      </c>
+      <c r="J184" t="n">
+        <v>24338.777618361</v>
+      </c>
+      <c r="K184" t="n">
+        <v>11009.11972999999</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>10.1302089024453</v>
+        <v>10.7923168530528</v>
       </c>
       <c r="C185" t="n">
-        <v>24194.8230632128</v>
+        <v>24893.3647423717</v>
       </c>
       <c r="D185" t="n">
-        <v>117296.861376771</v>
+        <v>190809.274615004</v>
       </c>
       <c r="E185" t="n">
-        <v>10.3661144132291</v>
+        <v>10.4739803719197</v>
       </c>
       <c r="F185" t="n">
-        <v>6.8</v>
+        <v>7.95098637233957</v>
       </c>
       <c r="G185" t="n">
-        <v>11180.12837</v>
+        <v>11256.57066</v>
       </c>
       <c r="H185" t="n">
-        <v>54230.014</v>
+        <v>88576.02624000001</v>
       </c>
       <c r="I185" t="n">
-        <v>7.25044190819206</v>
+        <v>7.42173920621387</v>
+      </c>
+      <c r="J185" t="n">
+        <v>24893.36474237198</v>
+      </c>
+      <c r="K185" t="n">
+        <v>11311.24835000001</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>10.6319519945095</v>
+        <v>10.9</v>
       </c>
       <c r="C186" t="n">
-        <v>24280.2708775</v>
+        <v>25270.6</v>
       </c>
       <c r="D186" t="n">
-        <v>141577.132254271</v>
+        <v>216079.9</v>
       </c>
       <c r="E186" t="n">
-        <v>10.4116143693684</v>
+        <v>10.5</v>
       </c>
       <c r="F186" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G186" t="n">
-        <v>12009.40586</v>
+        <v>12484.1</v>
       </c>
       <c r="H186" t="n">
-        <v>66255.65816000001</v>
+        <v>101089.3</v>
       </c>
       <c r="I186" t="n">
-        <v>7.35978222656072</v>
+        <v>7.5</v>
+      </c>
+      <c r="J186" t="n">
+        <v>25270.625384996</v>
+      </c>
+      <c r="K186" t="n">
+        <v>12513.27376</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>10.5123230528975</v>
+        <v>11.0234013690708</v>
       </c>
       <c r="C187" t="n">
-        <v>24338.7776183605</v>
+        <v>28278.8896231768</v>
       </c>
       <c r="D187" t="n">
-        <v>165915.909872632</v>
+        <v>244358.776530102</v>
       </c>
       <c r="E187" t="n">
-        <v>10.4263761844458</v>
+        <v>10.5790894766959</v>
       </c>
       <c r="F187" t="n">
-        <v>7.25765053597623</v>
+        <v>8.3509911731893</v>
       </c>
       <c r="G187" t="n">
-        <v>11005.34306</v>
+        <v>12612.202</v>
       </c>
       <c r="H187" t="n">
-        <v>77264.77789</v>
+        <v>113833.22774</v>
       </c>
       <c r="I187" t="n">
-        <v>7.34516466031907</v>
+        <v>7.61182769039313</v>
+      </c>
+      <c r="J187" t="n">
+        <v>28278.87653010202</v>
+      </c>
+      <c r="K187" t="n">
+        <v>12743.92774</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>10.7923168530528</v>
+        <v>11.1722283930183</v>
       </c>
       <c r="C188" t="n">
-        <v>24893.3647423717</v>
+        <v>27937.3458344569</v>
       </c>
       <c r="D188" t="n">
-        <v>190809.274615004</v>
+        <v>272296.122364558</v>
       </c>
       <c r="E188" t="n">
-        <v>10.4739803719197</v>
+        <v>10.639653483902</v>
       </c>
       <c r="F188" t="n">
-        <v>7.95098637233957</v>
+        <v>8.84570389800912</v>
       </c>
       <c r="G188" t="n">
-        <v>11256.57066</v>
+        <v>13502.72989</v>
       </c>
       <c r="H188" t="n">
-        <v>88576.02624000001</v>
+        <v>126906.01086</v>
       </c>
       <c r="I188" t="n">
-        <v>7.42173920621387</v>
+        <v>7.73966289788845</v>
+      </c>
+      <c r="J188" t="n">
+        <v>27937.34583445598</v>
+      </c>
+      <c r="K188" t="n">
+        <v>13072.78311999999</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="C189" t="n">
-        <v>25270.6</v>
+        <v>28634.6</v>
       </c>
       <c r="D189" t="n">
-        <v>216079.9</v>
+        <v>300930.8</v>
       </c>
       <c r="E189" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="F189" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G189" t="n">
-        <v>12484.1</v>
+        <v>15367</v>
       </c>
       <c r="H189" t="n">
-        <v>101089.3</v>
+        <v>142558</v>
       </c>
       <c r="I189" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
+      </c>
+      <c r="J189" t="n">
+        <v>28634.677635442</v>
+      </c>
+      <c r="K189" t="n">
+        <v>15651.98914000001</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>10</v>
-      </c>
-      <c r="C190" t="n">
-        <v>31119.2</v>
-      </c>
+          <t>2016-02</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>269601</v>
+        <v>52910.3</v>
       </c>
       <c r="E190" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F190" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G190" t="n">
-        <v>13507.7</v>
-      </c>
+        <v>10.2</v>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>122312.3</v>
+        <v>23080</v>
       </c>
       <c r="I190" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
+      </c>
+      <c r="J190" t="n">
+        <v>52910.3</v>
+      </c>
+      <c r="K190" t="n">
+        <v>23080</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>10.8</v>
+        <v>10.5</v>
       </c>
       <c r="C191" t="n">
-        <v>30958.5</v>
+        <v>25114.1</v>
       </c>
       <c r="D191" t="n">
-        <v>300559.5</v>
+        <v>78024.39999999999</v>
       </c>
       <c r="E191" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="F191" t="n">
-        <v>9.5</v>
+        <v>8.6</v>
       </c>
       <c r="G191" t="n">
-        <v>14791.8</v>
+        <v>11717.1</v>
       </c>
       <c r="H191" t="n">
-        <v>137203.2</v>
+        <v>34625.5</v>
       </c>
       <c r="I191" t="n">
-        <v>7.9</v>
+        <v>8</v>
+      </c>
+      <c r="J191" t="n">
+        <v>25114.09999999999</v>
+      </c>
+      <c r="K191" t="n">
+        <v>11545.5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>10.9</v>
+        <v>10.1</v>
       </c>
       <c r="C192" t="n">
-        <v>31757</v>
+        <v>24645.8</v>
       </c>
       <c r="D192" t="n">
-        <v>332316</v>
+        <v>102670.2</v>
       </c>
       <c r="E192" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="F192" t="n">
-        <v>9.800000000000001</v>
+        <v>6.7</v>
       </c>
       <c r="G192" t="n">
-        <v>16945</v>
+        <v>11264.3</v>
       </c>
       <c r="H192" t="n">
-        <v>154286</v>
+        <v>46111.3</v>
       </c>
       <c r="I192" t="n">
-        <v>8.1</v>
+        <v>7.7</v>
+      </c>
+      <c r="J192" t="n">
+        <v>24645.8</v>
+      </c>
+      <c r="K192" t="n">
+        <v>11485.8</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
+          <t>2016-05</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>10</v>
+      </c>
+      <c r="C193" t="n">
+        <v>26610.7</v>
+      </c>
       <c r="D193" t="n">
-        <v>52910.3</v>
+        <v>129280.9</v>
       </c>
       <c r="E193" t="n">
         <v>10.2</v>
       </c>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
+      <c r="F193" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G193" t="n">
+        <v>11884.9</v>
+      </c>
       <c r="H193" t="n">
-        <v>23080</v>
+        <v>58010.4</v>
       </c>
       <c r="I193" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
+      </c>
+      <c r="J193" t="n">
+        <v>26610.7</v>
+      </c>
+      <c r="K193" t="n">
+        <v>11899.1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="C194" t="n">
-        <v>25114.1</v>
+        <v>26857.4</v>
       </c>
       <c r="D194" t="n">
-        <v>78024.39999999999</v>
+        <v>156138.3</v>
       </c>
       <c r="E194" t="n">
         <v>10.3</v>
       </c>
       <c r="F194" t="n">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="G194" t="n">
-        <v>11717.1</v>
+        <v>13005.8</v>
       </c>
       <c r="H194" t="n">
-        <v>34625.5</v>
+        <v>71075.10000000001</v>
       </c>
       <c r="I194" t="n">
-        <v>8</v>
+        <v>7.5</v>
+      </c>
+      <c r="J194" t="n">
+        <v>26857.39999999999</v>
+      </c>
+      <c r="K194" t="n">
+        <v>13064.7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="C195" t="n">
-        <v>24645.8</v>
+        <v>26827.4</v>
       </c>
       <c r="D195" t="n">
-        <v>102670.2</v>
+        <v>182965.8</v>
       </c>
       <c r="E195" t="n">
         <v>10.3</v>
       </c>
       <c r="F195" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="G195" t="n">
-        <v>11264.3</v>
+        <v>11805.7</v>
       </c>
       <c r="H195" t="n">
-        <v>46111.3</v>
+        <v>82920.89999999999</v>
       </c>
       <c r="I195" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="J195" t="n">
+        <v>26827.5</v>
+      </c>
+      <c r="K195" t="n">
+        <v>11845.79999999999</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="C196" t="n">
-        <v>26610.7</v>
+        <v>27539.6</v>
       </c>
       <c r="D196" t="n">
-        <v>129280.9</v>
+        <v>210505.4</v>
       </c>
       <c r="E196" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="F196" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="G196" t="n">
-        <v>11884.9</v>
+        <v>12249.7</v>
       </c>
       <c r="H196" t="n">
-        <v>58010.4</v>
+        <v>95101</v>
       </c>
       <c r="I196" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
+      </c>
+      <c r="J196" t="n">
+        <v>27539.60000000001</v>
+      </c>
+      <c r="K196" t="n">
+        <v>12180.10000000001</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="C197" t="n">
-        <v>26857.4</v>
+        <v>27976.4</v>
       </c>
       <c r="D197" t="n">
-        <v>156138.3</v>
+        <v>238481.8</v>
       </c>
       <c r="E197" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="F197" t="n">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G197" t="n">
-        <v>13005.8</v>
+        <v>13503.9</v>
       </c>
       <c r="H197" t="n">
-        <v>71075.10000000001</v>
+        <v>108343.7</v>
       </c>
       <c r="I197" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
+      </c>
+      <c r="J197" t="n">
+        <v>27976.39999999999</v>
+      </c>
+      <c r="K197" t="n">
+        <v>13242.7</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="C198" t="n">
-        <v>26827.4</v>
+        <v>31119.2</v>
       </c>
       <c r="D198" t="n">
-        <v>182965.8</v>
+        <v>269601</v>
       </c>
       <c r="E198" t="n">
         <v>10.3</v>
       </c>
       <c r="F198" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="G198" t="n">
-        <v>11805.7</v>
+        <v>13507.7</v>
       </c>
       <c r="H198" t="n">
-        <v>82920.89999999999</v>
+        <v>122312.3</v>
       </c>
       <c r="I198" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
+      </c>
+      <c r="J198" t="n">
+        <v>31119.20000000001</v>
+      </c>
+      <c r="K198" t="n">
+        <v>13968.60000000001</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="C199" t="n">
-        <v>27539.6</v>
+        <v>30958.5</v>
       </c>
       <c r="D199" t="n">
-        <v>210505.4</v>
+        <v>300559.5</v>
       </c>
       <c r="E199" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="F199" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="G199" t="n">
-        <v>12249.7</v>
+        <v>14791.8</v>
       </c>
       <c r="H199" t="n">
-        <v>95101</v>
+        <v>137203.2</v>
       </c>
       <c r="I199" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
+      </c>
+      <c r="J199" t="n">
+        <v>30958.5</v>
+      </c>
+      <c r="K199" t="n">
+        <v>14890.90000000001</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="C200" t="n">
-        <v>27976.4</v>
+        <v>31757</v>
       </c>
       <c r="D200" t="n">
-        <v>238481.8</v>
+        <v>332316</v>
       </c>
       <c r="E200" t="n">
         <v>10.4</v>
       </c>
       <c r="F200" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G200" t="n">
-        <v>13503.9</v>
+        <v>16945</v>
       </c>
       <c r="H200" t="n">
-        <v>108343.7</v>
+        <v>154286</v>
       </c>
       <c r="I200" t="n">
-        <v>7.8</v>
+        <v>8.1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>31756.5</v>
+      </c>
+      <c r="K200" t="n">
+        <v>17082.79999999999</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>10</v>
-      </c>
-      <c r="C201" t="n">
-        <v>34240.9</v>
-      </c>
+          <t>2017-02</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>297419.4</v>
+        <v>57959.7</v>
       </c>
       <c r="E201" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="F201" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="G201" t="n">
-        <v>14373.8</v>
-      </c>
+        <v>9.5</v>
+      </c>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>131617.9</v>
+        <v>24679.7</v>
       </c>
       <c r="I201" t="n">
-        <v>8.300000000000001</v>
+        <v>6.8</v>
+      </c>
+      <c r="J201" t="n">
+        <v>57959.7</v>
+      </c>
+      <c r="K201" t="n">
+        <v>24679.7</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>10.2</v>
+        <v>10.9</v>
       </c>
       <c r="C202" t="n">
-        <v>34108.2</v>
+        <v>27863.7</v>
       </c>
       <c r="D202" t="n">
-        <v>331527.5</v>
+        <v>85823.39999999999</v>
       </c>
       <c r="E202" t="n">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="F202" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="G202" t="n">
-        <v>15778.7</v>
+        <v>12873.3</v>
       </c>
       <c r="H202" t="n">
-        <v>145752.6</v>
+        <v>37460.5</v>
       </c>
       <c r="I202" t="n">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
+      </c>
+      <c r="J202" t="n">
+        <v>27863.7</v>
+      </c>
+      <c r="K202" t="n">
+        <v>12780.8</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>9.4</v>
+        <v>10.7</v>
       </c>
       <c r="C203" t="n">
-        <v>34734.1</v>
+        <v>27278.5</v>
       </c>
       <c r="D203" t="n">
-        <v>366261.6</v>
+        <v>113101.9</v>
       </c>
       <c r="E203" t="n">
         <v>10.2</v>
       </c>
       <c r="F203" t="n">
-        <v>6.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G203" t="n">
-        <v>17409.4</v>
+        <v>12253.3</v>
       </c>
       <c r="H203" t="n">
-        <v>160612.5</v>
+        <v>49764.5</v>
       </c>
       <c r="I203" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J203" t="n">
+        <v>27278.5</v>
+      </c>
+      <c r="K203" t="n">
+        <v>12304</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
+          <t>2017-05</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C204" t="n">
+        <v>29459.2</v>
+      </c>
       <c r="D204" t="n">
-        <v>57959.7</v>
+        <v>142561.1</v>
       </c>
       <c r="E204" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
+        <v>10.3</v>
+      </c>
+      <c r="F204" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G204" t="n">
+        <v>12937.1</v>
+      </c>
       <c r="H204" t="n">
-        <v>24679.7</v>
+        <v>62689.3</v>
       </c>
       <c r="I204" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
+      </c>
+      <c r="J204" t="n">
+        <v>29459.20000000001</v>
+      </c>
+      <c r="K204" t="n">
+        <v>12924.8</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="C205" t="n">
-        <v>27863.7</v>
+        <v>29807.6</v>
       </c>
       <c r="D205" t="n">
-        <v>85823.39999999999</v>
+        <v>172368.7</v>
       </c>
       <c r="E205" t="n">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="F205" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="G205" t="n">
-        <v>12873.3</v>
+        <v>14222</v>
       </c>
       <c r="H205" t="n">
-        <v>37460.5</v>
+        <v>76953</v>
       </c>
       <c r="I205" t="n">
-        <v>7.9</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J205" t="n">
+        <v>29807.60000000001</v>
+      </c>
+      <c r="K205" t="n">
+        <v>14263.7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="C206" t="n">
-        <v>27278.5</v>
+        <v>29609.8</v>
       </c>
       <c r="D206" t="n">
-        <v>113101.9</v>
+        <v>201978.5</v>
       </c>
       <c r="E206" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="F206" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G206" t="n">
-        <v>12253.3</v>
+        <v>12812.6</v>
       </c>
       <c r="H206" t="n">
-        <v>49764.5</v>
+        <v>89820.7</v>
       </c>
       <c r="I206" t="n">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J206" t="n">
+        <v>29609.79999999999</v>
+      </c>
+      <c r="K206" t="n">
+        <v>12867.7</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>10.7</v>
+        <v>10.1</v>
       </c>
       <c r="C207" t="n">
-        <v>29459.2</v>
+        <v>30329.7</v>
       </c>
       <c r="D207" t="n">
-        <v>142561.1</v>
+        <v>232308.2</v>
       </c>
       <c r="E207" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="F207" t="n">
-        <v>9.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="G207" t="n">
-        <v>12937.1</v>
+        <v>13229.4</v>
       </c>
       <c r="H207" t="n">
-        <v>62689.3</v>
+        <v>103070</v>
       </c>
       <c r="I207" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
+      </c>
+      <c r="J207" t="n">
+        <v>30329.70000000001</v>
+      </c>
+      <c r="K207" t="n">
+        <v>13249.3</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>11</v>
+        <v>10.3</v>
       </c>
       <c r="C208" t="n">
-        <v>29807.6</v>
+        <v>30870.3</v>
       </c>
       <c r="D208" t="n">
-        <v>172368.7</v>
+        <v>263178.4</v>
       </c>
       <c r="E208" t="n">
         <v>10.4</v>
       </c>
       <c r="F208" t="n">
-        <v>10.2</v>
+        <v>7.8</v>
       </c>
       <c r="G208" t="n">
-        <v>14222</v>
+        <v>14629.7</v>
       </c>
       <c r="H208" t="n">
-        <v>76953</v>
+        <v>117750.5</v>
       </c>
       <c r="I208" t="n">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
+      </c>
+      <c r="J208" t="n">
+        <v>30870.20000000001</v>
+      </c>
+      <c r="K208" t="n">
+        <v>14680.5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="C209" t="n">
-        <v>29609.8</v>
+        <v>34240.9</v>
       </c>
       <c r="D209" t="n">
-        <v>201978.5</v>
+        <v>297419.4</v>
       </c>
       <c r="E209" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="F209" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="G209" t="n">
-        <v>12812.6</v>
+        <v>14373.8</v>
       </c>
       <c r="H209" t="n">
-        <v>89820.7</v>
+        <v>131617.9</v>
       </c>
       <c r="I209" t="n">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J209" t="n">
+        <v>34241</v>
+      </c>
+      <c r="K209" t="n">
+        <v>13867.39999999999</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="C210" t="n">
-        <v>30329.7</v>
+        <v>34108.2</v>
       </c>
       <c r="D210" t="n">
-        <v>232308.2</v>
+        <v>331527.5</v>
       </c>
       <c r="E210" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="F210" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="G210" t="n">
-        <v>13229.4</v>
+        <v>15778.7</v>
       </c>
       <c r="H210" t="n">
-        <v>103070</v>
+        <v>145752.6</v>
       </c>
       <c r="I210" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J210" t="n">
+        <v>34108.09999999998</v>
+      </c>
+      <c r="K210" t="n">
+        <v>14134.70000000001</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>10.3</v>
+        <v>9.4</v>
       </c>
       <c r="C211" t="n">
-        <v>30870.3</v>
+        <v>34734.1</v>
       </c>
       <c r="D211" t="n">
-        <v>263178.4</v>
+        <v>366261.6</v>
       </c>
       <c r="E211" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="F211" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="G211" t="n">
-        <v>14629.7</v>
+        <v>17409.4</v>
       </c>
       <c r="H211" t="n">
-        <v>117750.5</v>
+        <v>160612.5</v>
       </c>
       <c r="I211" t="n">
-        <v>8.5</v>
+        <v>8.1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>34734.09999999998</v>
+      </c>
+      <c r="K211" t="n">
+        <v>14859.89999999999</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="C212" t="n">
-        <v>35534.4</v>
-      </c>
+          <t>2018-02</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
-        <v>309833.7</v>
+        <v>61081.8</v>
       </c>
       <c r="E212" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F212" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G212" t="n">
-        <v>12478.6</v>
-      </c>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
       <c r="H212" t="n">
-        <v>117177.5</v>
+        <v>23242</v>
       </c>
       <c r="I212" t="n">
-        <v>6.6</v>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J212" t="n">
+        <v>61081.8</v>
+      </c>
+      <c r="K212" t="n">
+        <v>23242</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>8.1</v>
+        <v>10.1</v>
       </c>
       <c r="C213" t="n">
-        <v>35259.7</v>
+        <v>29193.6</v>
       </c>
       <c r="D213" t="n">
-        <v>345093.4</v>
+        <v>90275.39999999999</v>
       </c>
       <c r="E213" t="n">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F213" t="n">
-        <v>2.1</v>
+        <v>9</v>
       </c>
       <c r="G213" t="n">
-        <v>13678.7</v>
+        <v>11831.8</v>
       </c>
       <c r="H213" t="n">
-        <v>130829.9</v>
+        <v>34941</v>
       </c>
       <c r="I213" t="n">
-        <v>6.1</v>
+        <v>8.5</v>
+      </c>
+      <c r="J213" t="n">
+        <v>29193.59999999999</v>
+      </c>
+      <c r="K213" t="n">
+        <v>11699</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>8.1608136072</v>
+        <v>9.4</v>
       </c>
       <c r="C214" t="n">
-        <v>35893.4983358266</v>
+        <v>28541.9</v>
       </c>
       <c r="D214" t="n">
-        <v>380986.852172768</v>
+        <v>118817.3</v>
       </c>
       <c r="E214" t="n">
-        <v>8.981749407400001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F214" t="n">
-        <v>2.4369192371</v>
+        <v>7.8</v>
       </c>
       <c r="G214" t="n">
-        <v>15084.00712</v>
+        <v>11240.6</v>
       </c>
       <c r="H214" t="n">
-        <v>145311.28732</v>
+        <v>46136.9</v>
       </c>
       <c r="I214" t="n">
-        <v>5.7054764073</v>
+        <v>8.4</v>
+      </c>
+      <c r="J214" t="n">
+        <v>28541.90000000001</v>
+      </c>
+      <c r="K214" t="n">
+        <v>11195.9</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
+          <t>2018-05</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C215" t="n">
+        <v>30359.1</v>
+      </c>
       <c r="D215" t="n">
-        <v>61081.8</v>
+        <v>149176.4</v>
       </c>
       <c r="E215" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
+        <v>9.5</v>
+      </c>
+      <c r="F215" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G215" t="n">
+        <v>11476.7</v>
+      </c>
       <c r="H215" t="n">
-        <v>23242</v>
+        <v>57517.7</v>
       </c>
       <c r="I215" t="n">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
+      </c>
+      <c r="J215" t="n">
+        <v>30359.09999999999</v>
+      </c>
+      <c r="K215" t="n">
+        <v>11380.8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="C216" t="n">
-        <v>29193.6</v>
+        <v>30841.6</v>
       </c>
       <c r="D216" t="n">
-        <v>90275.39999999999</v>
+        <v>180017.9</v>
       </c>
       <c r="E216" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="F216" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="G216" t="n">
-        <v>11831.8</v>
+        <v>12448.3</v>
       </c>
       <c r="H216" t="n">
-        <v>34941</v>
+        <v>69937.60000000001</v>
       </c>
       <c r="I216" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
+      </c>
+      <c r="J216" t="n">
+        <v>30841.5</v>
+      </c>
+      <c r="K216" t="n">
+        <v>12419.90000000001</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C217" t="n">
-        <v>28541.9</v>
+        <v>30733.7</v>
       </c>
       <c r="D217" t="n">
-        <v>118817.3</v>
+        <v>210751.6</v>
       </c>
       <c r="E217" t="n">
-        <v>9.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F217" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="G217" t="n">
-        <v>11240.6</v>
+        <v>11419</v>
       </c>
       <c r="H217" t="n">
-        <v>46136.9</v>
+        <v>81125.2</v>
       </c>
       <c r="I217" t="n">
-        <v>8.4</v>
+        <v>7.3</v>
+      </c>
+      <c r="J217" t="n">
+        <v>30733.70000000001</v>
+      </c>
+      <c r="K217" t="n">
+        <v>11187.59999999999</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="C218" t="n">
-        <v>30359.1</v>
+        <v>31542.3</v>
       </c>
       <c r="D218" t="n">
-        <v>149176.4</v>
+        <v>242293.9</v>
       </c>
       <c r="E218" t="n">
-        <v>9.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F218" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G218" t="n">
-        <v>11476.7</v>
+        <v>11832.2</v>
       </c>
       <c r="H218" t="n">
-        <v>57517.7</v>
+        <v>92367.7</v>
       </c>
       <c r="I218" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>31542.29999999999</v>
+      </c>
+      <c r="K218" t="n">
+        <v>11242.5</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C219" t="n">
-        <v>30841.6</v>
+        <v>32005.4</v>
       </c>
       <c r="D219" t="n">
-        <v>180017.9</v>
+        <v>274299.3</v>
       </c>
       <c r="E219" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F219" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="G219" t="n">
-        <v>12448.3</v>
+        <v>12761.7</v>
       </c>
       <c r="H219" t="n">
-        <v>69937.60000000001</v>
+        <v>104792.1</v>
       </c>
       <c r="I219" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
+      </c>
+      <c r="J219" t="n">
+        <v>32005.39999999999</v>
+      </c>
+      <c r="K219" t="n">
+        <v>12424.40000000001</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="C220" t="n">
-        <v>30733.7</v>
+        <v>35534.4</v>
       </c>
       <c r="D220" t="n">
-        <v>210751.6</v>
+        <v>309833.7</v>
       </c>
       <c r="E220" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F220" t="n">
-        <v>5.7</v>
+        <v>3.7</v>
       </c>
       <c r="G220" t="n">
-        <v>11419</v>
+        <v>12478.6</v>
       </c>
       <c r="H220" t="n">
-        <v>81125.2</v>
+        <v>117177.5</v>
       </c>
       <c r="I220" t="n">
-        <v>7.3</v>
+        <v>6.6</v>
+      </c>
+      <c r="J220" t="n">
+        <v>35534.40000000002</v>
+      </c>
+      <c r="K220" t="n">
+        <v>12385.39999999999</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="C221" t="n">
-        <v>31542.3</v>
+        <v>35259.7</v>
       </c>
       <c r="D221" t="n">
-        <v>242293.9</v>
+        <v>345093.4</v>
       </c>
       <c r="E221" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="F221" t="n">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="G221" t="n">
-        <v>11832.2</v>
+        <v>13678.7</v>
       </c>
       <c r="H221" t="n">
-        <v>92367.7</v>
+        <v>130829.9</v>
       </c>
       <c r="I221" t="n">
-        <v>7.1</v>
+        <v>6.1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>35259.70000000001</v>
+      </c>
+      <c r="K221" t="n">
+        <v>13652.39999999999</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>9.199999999999999</v>
+        <v>8.1608136072</v>
       </c>
       <c r="C222" t="n">
-        <v>32005.4</v>
+        <v>35893.4983358266</v>
       </c>
       <c r="D222" t="n">
-        <v>274299.3</v>
+        <v>380986.852172768</v>
       </c>
       <c r="E222" t="n">
-        <v>9.300000000000001</v>
+        <v>8.981749407400001</v>
       </c>
       <c r="F222" t="n">
-        <v>5.7</v>
+        <v>2.4369192371</v>
       </c>
       <c r="G222" t="n">
-        <v>12761.7</v>
+        <v>15084.00712</v>
       </c>
       <c r="H222" t="n">
-        <v>104792.1</v>
+        <v>145311.28732</v>
       </c>
       <c r="I222" t="n">
-        <v>6.9</v>
+        <v>5.7054764073</v>
+      </c>
+      <c r="J222" t="n">
+        <v>35893.45217276795</v>
+      </c>
+      <c r="K222" t="n">
+        <v>14481.38732000001</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C223" t="n">
-        <v>38104.3</v>
-      </c>
+          <t>2019-02</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
-        <v>334778.5</v>
+        <v>66064</v>
       </c>
       <c r="E223" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G223" t="n">
-        <v>12322.1</v>
-      </c>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
       <c r="H223" t="n">
-        <v>118918.8</v>
+        <v>23096</v>
       </c>
       <c r="I223" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
+      </c>
+      <c r="J223" t="n">
+        <v>66064</v>
+      </c>
+      <c r="K223" t="n">
+        <v>23096</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C224" t="n">
-        <v>38093.8</v>
+        <v>31725.7</v>
       </c>
       <c r="D224" t="n">
-        <v>372872.3</v>
+        <v>97789.7</v>
       </c>
       <c r="E224" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F224" t="n">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="G224" t="n">
-        <v>13964.7</v>
+        <v>11952.5</v>
       </c>
       <c r="H224" t="n">
-        <v>132639.1</v>
+        <v>35078.2</v>
       </c>
       <c r="I224" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>31725.7</v>
+      </c>
+      <c r="K224" t="n">
+        <v>11982.2</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="C225" t="n">
-        <v>38776.7</v>
+        <v>30586.1</v>
       </c>
       <c r="D225" t="n">
-        <v>411649</v>
+        <v>128375.8</v>
       </c>
       <c r="E225" t="n">
         <v>8</v>
       </c>
       <c r="F225" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="G225" t="n">
-        <v>15337.6</v>
+        <v>11120.1</v>
       </c>
       <c r="H225" t="n">
-        <v>148009.9</v>
+        <v>46211.9</v>
       </c>
       <c r="I225" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
+      </c>
+      <c r="J225" t="n">
+        <v>30586.10000000001</v>
+      </c>
+      <c r="K225" t="n">
+        <v>11133.7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
+          <t>2019-05</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C226" t="n">
+        <v>32955.7</v>
+      </c>
       <c r="D226" t="n">
-        <v>66064</v>
+        <v>161331.6</v>
       </c>
       <c r="E226" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
+        <v>8.1</v>
+      </c>
+      <c r="F226" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>11693.8</v>
+      </c>
       <c r="H226" t="n">
-        <v>23096</v>
+        <v>57924</v>
       </c>
       <c r="I226" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
+      </c>
+      <c r="J226" t="n">
+        <v>32955.8</v>
+      </c>
+      <c r="K226" t="n">
+        <v>11712.1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C227" t="n">
-        <v>31725.7</v>
+        <v>33878.1</v>
       </c>
       <c r="D227" t="n">
-        <v>97789.7</v>
+        <v>195209.7</v>
       </c>
       <c r="E227" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="F227" t="n">
-        <v>5.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G227" t="n">
-        <v>11952.5</v>
+        <v>13163.4</v>
       </c>
       <c r="H227" t="n">
-        <v>35078.2</v>
+        <v>71124.2</v>
       </c>
       <c r="I227" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
+      </c>
+      <c r="J227" t="n">
+        <v>33878.10000000001</v>
+      </c>
+      <c r="K227" t="n">
+        <v>13200.2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="C228" t="n">
-        <v>30586.1</v>
+        <v>33073.3</v>
       </c>
       <c r="D228" t="n">
-        <v>128375.8</v>
+        <v>228282.9</v>
       </c>
       <c r="E228" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F228" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="G228" t="n">
-        <v>11120.1</v>
+        <v>11412.1</v>
       </c>
       <c r="H228" t="n">
-        <v>46211.9</v>
+        <v>82446.2</v>
       </c>
       <c r="I228" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
+      </c>
+      <c r="J228" t="n">
+        <v>33073.19999999998</v>
+      </c>
+      <c r="K228" t="n">
+        <v>11322</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>8.6</v>
+        <v>7.5</v>
       </c>
       <c r="C229" t="n">
-        <v>32955.7</v>
+        <v>33896.3</v>
       </c>
       <c r="D229" t="n">
-        <v>161331.6</v>
+        <v>262179.3</v>
       </c>
       <c r="E229" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F229" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="G229" t="n">
-        <v>11693.8</v>
+        <v>11772.1</v>
       </c>
       <c r="H229" t="n">
-        <v>57924</v>
+        <v>93880.89999999999</v>
       </c>
       <c r="I229" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
+      </c>
+      <c r="J229" t="n">
+        <v>33896.39999999999</v>
+      </c>
+      <c r="K229" t="n">
+        <v>11434.7</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="C230" t="n">
-        <v>33878.1</v>
+        <v>34494.9</v>
       </c>
       <c r="D230" t="n">
-        <v>195209.7</v>
+        <v>296674.2</v>
       </c>
       <c r="E230" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F230" t="n">
-        <v>9.699999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="G230" t="n">
-        <v>13163.4</v>
+        <v>12835.4</v>
       </c>
       <c r="H230" t="n">
-        <v>71124.2</v>
+        <v>106691.9</v>
       </c>
       <c r="I230" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>34494.90000000002</v>
+      </c>
+      <c r="K230" t="n">
+        <v>12811</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="C231" t="n">
-        <v>33073.3</v>
+        <v>38104.3</v>
       </c>
       <c r="D231" t="n">
-        <v>228282.9</v>
+        <v>334778.5</v>
       </c>
       <c r="E231" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="F231" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="G231" t="n">
-        <v>11412.1</v>
+        <v>12322.1</v>
       </c>
       <c r="H231" t="n">
-        <v>82446.2</v>
+        <v>118918.8</v>
       </c>
       <c r="I231" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
+      </c>
+      <c r="J231" t="n">
+        <v>38104.29999999999</v>
+      </c>
+      <c r="K231" t="n">
+        <v>12226.90000000001</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="n">
-        <v>33896.3</v>
+        <v>38093.8</v>
       </c>
       <c r="D232" t="n">
-        <v>262179.3</v>
+        <v>372872.3</v>
       </c>
       <c r="E232" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="F232" t="n">
-        <v>2</v>
+        <v>4.4</v>
       </c>
       <c r="G232" t="n">
-        <v>11772.1</v>
+        <v>13964.7</v>
       </c>
       <c r="H232" t="n">
-        <v>93880.89999999999</v>
+        <v>132639.1</v>
       </c>
       <c r="I232" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
+      </c>
+      <c r="J232" t="n">
+        <v>38093.79999999999</v>
+      </c>
+      <c r="K232" t="n">
+        <v>13720.3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="C233" t="n">
-        <v>34494.9</v>
+        <v>38776.7</v>
       </c>
       <c r="D233" t="n">
-        <v>296674.2</v>
+        <v>411649</v>
       </c>
       <c r="E233" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="F233" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="G233" t="n">
-        <v>12835.4</v>
+        <v>15337.6</v>
       </c>
       <c r="H233" t="n">
-        <v>106691.9</v>
+        <v>148009.9</v>
       </c>
       <c r="I233" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
+      </c>
+      <c r="J233" t="n">
+        <v>38776.70000000001</v>
+      </c>
+      <c r="K233" t="n">
+        <v>15370.79999999999</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C234" t="n">
-        <v>38576.5</v>
-      </c>
+          <t>2020-02</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
       <c r="D234" t="n">
-        <v>311900.5</v>
+        <v>52129.8</v>
       </c>
       <c r="E234" t="n">
-        <v>-5.9</v>
-      </c>
-      <c r="F234" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="G234" t="n">
-        <v>13095</v>
-      </c>
+        <v>-20.5</v>
+      </c>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
       <c r="H234" t="n">
-        <v>111887.7</v>
+        <v>16949.8</v>
       </c>
       <c r="I234" t="n">
-        <v>-4.2</v>
+        <v>-23.4</v>
+      </c>
+      <c r="J234" t="n">
+        <v>52129.8</v>
+      </c>
+      <c r="K234" t="n">
+        <v>16949.8</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>5</v>
+        <v>-15.8</v>
       </c>
       <c r="C235" t="n">
-        <v>39514.2</v>
+        <v>26449.9</v>
       </c>
       <c r="D235" t="n">
-        <v>351414.7</v>
+        <v>78579.7</v>
       </c>
       <c r="E235" t="n">
-        <v>-4.8</v>
+        <v>-19</v>
       </c>
       <c r="F235" t="n">
-        <v>8.300000000000001</v>
+        <v>-15</v>
       </c>
       <c r="G235" t="n">
-        <v>15190.3</v>
+        <v>9984.299999999999</v>
       </c>
       <c r="H235" t="n">
-        <v>127123.6</v>
+        <v>27049.1</v>
       </c>
       <c r="I235" t="n">
-        <v>-2.8</v>
+        <v>-20.5</v>
+      </c>
+      <c r="J235" t="n">
+        <v>26449.89999999999</v>
+      </c>
+      <c r="K235" t="n">
+        <v>10099.3</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>4.6</v>
+        <v>-7.5</v>
       </c>
       <c r="C236" t="n">
-        <v>40566</v>
+        <v>28177.8</v>
       </c>
       <c r="D236" t="n">
-        <v>391980.6</v>
+        <v>106757.5</v>
       </c>
       <c r="E236" t="n">
-        <v>-3.9</v>
+        <v>-16.2</v>
       </c>
       <c r="F236" t="n">
-        <v>6.4</v>
+        <v>-3.2</v>
       </c>
       <c r="G236" t="n">
-        <v>16300.8</v>
+        <v>10588.3</v>
       </c>
       <c r="H236" t="n">
-        <v>143322.9</v>
+        <v>37607.7</v>
       </c>
       <c r="I236" t="n">
-        <v>-1.9</v>
+        <v>-16.3</v>
+      </c>
+      <c r="J236" t="n">
+        <v>28177.8</v>
+      </c>
+      <c r="K236" t="n">
+        <v>10558.6</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr"/>
-      <c r="C237" t="inlineStr"/>
+          <t>2020-05</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="C237" t="n">
+        <v>31972.8</v>
+      </c>
       <c r="D237" t="n">
-        <v>52129.8</v>
+        <v>138730.3</v>
       </c>
       <c r="E237" t="n">
-        <v>-20.5</v>
-      </c>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
+        <v>-13.5</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G237" t="n">
+        <v>11664.2</v>
+      </c>
       <c r="H237" t="n">
-        <v>16949.8</v>
+        <v>49317.2</v>
       </c>
       <c r="I237" t="n">
-        <v>-23.4</v>
+        <v>-12.7</v>
+      </c>
+      <c r="J237" t="n">
+        <v>31972.79999999999</v>
+      </c>
+      <c r="K237" t="n">
+        <v>11709.5</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>-15.8</v>
+        <v>-1.8</v>
       </c>
       <c r="C238" t="n">
-        <v>26449.9</v>
+        <v>33525.9</v>
       </c>
       <c r="D238" t="n">
-        <v>78579.7</v>
+        <v>172256.2</v>
       </c>
       <c r="E238" t="n">
-        <v>-19</v>
+        <v>-11.4</v>
       </c>
       <c r="F238" t="n">
-        <v>-15</v>
+        <v>-0.4</v>
       </c>
       <c r="G238" t="n">
-        <v>9984.299999999999</v>
+        <v>13106.9</v>
       </c>
       <c r="H238" t="n">
-        <v>27049.1</v>
+        <v>62374.8</v>
       </c>
       <c r="I238" t="n">
-        <v>-20.5</v>
+        <v>-10.3</v>
+      </c>
+      <c r="J238" t="n">
+        <v>33525.90000000002</v>
+      </c>
+      <c r="K238" t="n">
+        <v>13057.60000000001</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>-7.5</v>
+        <v>-1.1</v>
       </c>
       <c r="C239" t="n">
-        <v>28177.8</v>
+        <v>32202.5</v>
       </c>
       <c r="D239" t="n">
-        <v>106757.5</v>
+        <v>204458.7</v>
       </c>
       <c r="E239" t="n">
-        <v>-16.2</v>
+        <v>-9.9</v>
       </c>
       <c r="F239" t="n">
-        <v>-3.2</v>
+        <v>2.2</v>
       </c>
       <c r="G239" t="n">
-        <v>10588.3</v>
+        <v>11351.3</v>
       </c>
       <c r="H239" t="n">
-        <v>37607.7</v>
+        <v>73332.10000000001</v>
       </c>
       <c r="I239" t="n">
-        <v>-16.3</v>
+        <v>-8.6</v>
+      </c>
+      <c r="J239" t="n">
+        <v>32202.5</v>
+      </c>
+      <c r="K239" t="n">
+        <v>10957.3</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>-2.8</v>
+        <v>0.5</v>
       </c>
       <c r="C240" t="n">
-        <v>31972.8</v>
+        <v>33570.6</v>
       </c>
       <c r="D240" t="n">
-        <v>138730.3</v>
+        <v>238029.4</v>
       </c>
       <c r="E240" t="n">
-        <v>-13.5</v>
+        <v>-8.6</v>
       </c>
       <c r="F240" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="G240" t="n">
-        <v>11664.2</v>
+        <v>12136.1</v>
       </c>
       <c r="H240" t="n">
-        <v>49317.2</v>
+        <v>85316.89999999999</v>
       </c>
       <c r="I240" t="n">
-        <v>-12.7</v>
+        <v>-7</v>
+      </c>
+      <c r="J240" t="n">
+        <v>33570.69999999998</v>
+      </c>
+      <c r="K240" t="n">
+        <v>11984.79999999999</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>-1.8</v>
+        <v>3.3</v>
       </c>
       <c r="C241" t="n">
-        <v>33525.9</v>
+        <v>35294.7</v>
       </c>
       <c r="D241" t="n">
-        <v>172256.2</v>
+        <v>273324</v>
       </c>
       <c r="E241" t="n">
-        <v>-11.4</v>
+        <v>-7.2</v>
       </c>
       <c r="F241" t="n">
-        <v>-0.4</v>
+        <v>5.3</v>
       </c>
       <c r="G241" t="n">
-        <v>13106.9</v>
+        <v>13376.4</v>
       </c>
       <c r="H241" t="n">
-        <v>62374.8</v>
+        <v>98573.5</v>
       </c>
       <c r="I241" t="n">
-        <v>-10.3</v>
+        <v>-5.5</v>
+      </c>
+      <c r="J241" t="n">
+        <v>35294.60000000001</v>
+      </c>
+      <c r="K241" t="n">
+        <v>13256.60000000001</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>-1.1</v>
+        <v>4.3</v>
       </c>
       <c r="C242" t="n">
-        <v>32202.5</v>
+        <v>38576.5</v>
       </c>
       <c r="D242" t="n">
-        <v>204458.7</v>
+        <v>311900.5</v>
       </c>
       <c r="E242" t="n">
-        <v>-9.9</v>
+        <v>-5.9</v>
       </c>
       <c r="F242" t="n">
-        <v>2.2</v>
+        <v>7.1</v>
       </c>
       <c r="G242" t="n">
-        <v>11351.3</v>
+        <v>13095</v>
       </c>
       <c r="H242" t="n">
-        <v>73332.10000000001</v>
+        <v>111887.7</v>
       </c>
       <c r="I242" t="n">
-        <v>-8.6</v>
+        <v>-4.2</v>
+      </c>
+      <c r="J242" t="n">
+        <v>38576.5</v>
+      </c>
+      <c r="K242" t="n">
+        <v>13314.2</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="C243" t="n">
-        <v>33570.6</v>
+        <v>39514.2</v>
       </c>
       <c r="D243" t="n">
-        <v>238029.4</v>
+        <v>351414.7</v>
       </c>
       <c r="E243" t="n">
-        <v>-8.6</v>
+        <v>-4.8</v>
       </c>
       <c r="F243" t="n">
-        <v>4.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G243" t="n">
-        <v>12136.1</v>
+        <v>15190.3</v>
       </c>
       <c r="H243" t="n">
-        <v>85316.89999999999</v>
+        <v>127123.6</v>
       </c>
       <c r="I243" t="n">
-        <v>-7</v>
+        <v>-2.8</v>
+      </c>
+      <c r="J243" t="n">
+        <v>39514.20000000001</v>
+      </c>
+      <c r="K243" t="n">
+        <v>15235.90000000001</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="C244" t="n">
-        <v>35294.7</v>
+        <v>40566</v>
       </c>
       <c r="D244" t="n">
-        <v>273324</v>
+        <v>391980.6</v>
       </c>
       <c r="E244" t="n">
-        <v>-7.2</v>
+        <v>-3.9</v>
       </c>
       <c r="F244" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="G244" t="n">
-        <v>13376.4</v>
+        <v>16300.8</v>
       </c>
       <c r="H244" t="n">
-        <v>98573.5</v>
+        <v>143322.9</v>
       </c>
       <c r="I244" t="n">
-        <v>-5.5</v>
+        <v>-1.9</v>
+      </c>
+      <c r="J244" t="n">
+        <v>40565.89999999997</v>
+      </c>
+      <c r="K244" t="n">
+        <v>16199.29999999999</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="C245" t="n">
-        <v>40453.9</v>
-      </c>
+          <t>2021-02</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="n">
-        <v>358511.1</v>
+        <v>69736.8</v>
       </c>
       <c r="E245" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="F245" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="G245" t="n">
-        <v>13866.7</v>
-      </c>
+        <v>33.8</v>
+      </c>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
       <c r="H245" t="n">
-        <v>131281</v>
+        <v>24374.5</v>
       </c>
       <c r="I245" t="n">
-        <v>16.4</v>
+        <v>43.9</v>
+      </c>
+      <c r="J245" t="n">
+        <v>69736.8</v>
+      </c>
+      <c r="K245" t="n">
+        <v>24374.5</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>3.9</v>
+        <v>34.2</v>
       </c>
       <c r="C246" t="n">
-        <v>41043.2</v>
+        <v>35484.1</v>
       </c>
       <c r="D246" t="n">
-        <v>399554.3</v>
+        <v>105220.8</v>
       </c>
       <c r="E246" t="n">
-        <v>13.7</v>
+        <v>33.9</v>
       </c>
       <c r="F246" t="n">
-        <v>4.2</v>
+        <v>38.6</v>
       </c>
       <c r="G246" t="n">
-        <v>16030.8</v>
+        <v>13699.7</v>
       </c>
       <c r="H246" t="n">
-        <v>147515.5</v>
+        <v>38140</v>
       </c>
       <c r="I246" t="n">
-        <v>14.9</v>
+        <v>42</v>
+      </c>
+      <c r="J246" t="n">
+        <v>35484</v>
+      </c>
+      <c r="K246" t="n">
+        <v>13765.5</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1.7</v>
+        <v>17.7</v>
       </c>
       <c r="C247" t="n">
-        <v>41268.9</v>
+        <v>33152.6</v>
       </c>
       <c r="D247" t="n">
-        <v>440823.2</v>
+        <v>138373.4</v>
       </c>
       <c r="E247" t="n">
-        <v>12.5</v>
+        <v>29.6</v>
       </c>
       <c r="F247" t="n">
-        <v>1.6</v>
+        <v>18.5</v>
       </c>
       <c r="G247" t="n">
-        <v>16703.2</v>
+        <v>12592.4</v>
       </c>
       <c r="H247" t="n">
-        <v>164148.1</v>
+        <v>50752.8</v>
       </c>
       <c r="I247" t="n">
-        <v>13.4</v>
+        <v>35.3</v>
+      </c>
+      <c r="J247" t="n">
+        <v>33152.59999999999</v>
+      </c>
+      <c r="K247" t="n">
+        <v>12612.8</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr"/>
-      <c r="C248" t="inlineStr"/>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C248" t="n">
+        <v>35945.1</v>
+      </c>
       <c r="D248" t="n">
-        <v>69736.8</v>
+        <v>174318.5</v>
       </c>
       <c r="E248" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
+        <v>25.7</v>
+      </c>
+      <c r="F248" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="G248" t="n">
+        <v>13214.4</v>
+      </c>
       <c r="H248" t="n">
-        <v>24374.5</v>
+        <v>63974.4</v>
       </c>
       <c r="I248" t="n">
-        <v>43.9</v>
+        <v>29.9</v>
+      </c>
+      <c r="J248" t="n">
+        <v>35945.10000000001</v>
+      </c>
+      <c r="K248" t="n">
+        <v>13221.6</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>34.2</v>
+        <v>12.1</v>
       </c>
       <c r="C249" t="n">
-        <v>35484.1</v>
+        <v>37585.8</v>
       </c>
       <c r="D249" t="n">
-        <v>105220.8</v>
+        <v>211904.3</v>
       </c>
       <c r="E249" t="n">
-        <v>33.9</v>
+        <v>23</v>
       </c>
       <c r="F249" t="n">
-        <v>38.6</v>
+        <v>13.2</v>
       </c>
       <c r="G249" t="n">
-        <v>13699.7</v>
+        <v>14890.7</v>
       </c>
       <c r="H249" t="n">
-        <v>38140</v>
+        <v>78939.3</v>
       </c>
       <c r="I249" t="n">
-        <v>42</v>
+        <v>26.4</v>
+      </c>
+      <c r="J249" t="n">
+        <v>37585.79999999999</v>
+      </c>
+      <c r="K249" t="n">
+        <v>14964.9</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>17.7</v>
+        <v>8.5</v>
       </c>
       <c r="C250" t="n">
-        <v>33152.6</v>
+        <v>34925.1</v>
       </c>
       <c r="D250" t="n">
-        <v>138373.4</v>
+        <v>246829.4</v>
       </c>
       <c r="E250" t="n">
-        <v>29.6</v>
+        <v>20.7</v>
       </c>
       <c r="F250" t="n">
-        <v>18.5</v>
+        <v>8.5</v>
       </c>
       <c r="G250" t="n">
-        <v>12592.4</v>
+        <v>12425.2</v>
       </c>
       <c r="H250" t="n">
-        <v>50752.8</v>
+        <v>91259.5</v>
       </c>
       <c r="I250" t="n">
-        <v>35.3</v>
+        <v>23.6</v>
+      </c>
+      <c r="J250" t="n">
+        <v>34925.10000000001</v>
+      </c>
+      <c r="K250" t="n">
+        <v>12320.2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>12.4</v>
+        <v>2.5</v>
       </c>
       <c r="C251" t="n">
-        <v>35945.1</v>
+        <v>34394.9</v>
       </c>
       <c r="D251" t="n">
-        <v>174318.5</v>
+        <v>281224.2</v>
       </c>
       <c r="E251" t="n">
-        <v>25.7</v>
+        <v>18.1</v>
       </c>
       <c r="F251" t="n">
-        <v>12.7</v>
+        <v>0.5</v>
       </c>
       <c r="G251" t="n">
-        <v>13214.4</v>
+        <v>12342.5</v>
       </c>
       <c r="H251" t="n">
-        <v>63974.4</v>
+        <v>103568.4</v>
       </c>
       <c r="I251" t="n">
-        <v>29.9</v>
+        <v>20.3</v>
+      </c>
+      <c r="J251" t="n">
+        <v>34394.80000000002</v>
+      </c>
+      <c r="K251" t="n">
+        <v>12308.89999999999</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>12.1</v>
+        <v>4.4</v>
       </c>
       <c r="C252" t="n">
-        <v>37585.8</v>
+        <v>36833</v>
       </c>
       <c r="D252" t="n">
-        <v>211904.3</v>
+        <v>318057.2</v>
       </c>
       <c r="E252" t="n">
-        <v>23</v>
+        <v>16.4</v>
       </c>
       <c r="F252" t="n">
-        <v>13.2</v>
+        <v>2.8</v>
       </c>
       <c r="G252" t="n">
-        <v>14890.7</v>
+        <v>13902</v>
       </c>
       <c r="H252" t="n">
-        <v>78939.3</v>
+        <v>117587.9</v>
       </c>
       <c r="I252" t="n">
-        <v>26.4</v>
+        <v>17.9</v>
+      </c>
+      <c r="J252" t="n">
+        <v>36833</v>
+      </c>
+      <c r="K252" t="n">
+        <v>14019.5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>8.5</v>
+        <v>4.9</v>
       </c>
       <c r="C253" t="n">
-        <v>34925.1</v>
+        <v>40453.9</v>
       </c>
       <c r="D253" t="n">
-        <v>246829.4</v>
+        <v>358511.1</v>
       </c>
       <c r="E253" t="n">
-        <v>20.7</v>
+        <v>14.9</v>
       </c>
       <c r="F253" t="n">
-        <v>8.5</v>
+        <v>4.6</v>
       </c>
       <c r="G253" t="n">
-        <v>12425.2</v>
+        <v>13866.7</v>
       </c>
       <c r="H253" t="n">
-        <v>91259.5</v>
+        <v>131281</v>
       </c>
       <c r="I253" t="n">
-        <v>23.6</v>
+        <v>16.4</v>
+      </c>
+      <c r="J253" t="n">
+        <v>40453.89999999997</v>
+      </c>
+      <c r="K253" t="n">
+        <v>13693.10000000001</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="C254" t="n">
-        <v>34394.9</v>
+        <v>41043.2</v>
       </c>
       <c r="D254" t="n">
-        <v>281224.2</v>
+        <v>399554.3</v>
       </c>
       <c r="E254" t="n">
-        <v>18.1</v>
+        <v>13.7</v>
       </c>
       <c r="F254" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="G254" t="n">
-        <v>12342.5</v>
+        <v>16030.8</v>
       </c>
       <c r="H254" t="n">
-        <v>103568.4</v>
+        <v>147515.5</v>
       </c>
       <c r="I254" t="n">
-        <v>20.3</v>
+        <v>14.9</v>
+      </c>
+      <c r="J254" t="n">
+        <v>41043.20000000001</v>
+      </c>
+      <c r="K254" t="n">
+        <v>16234.5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="C255" t="n">
-        <v>36833</v>
+        <v>41268.9</v>
       </c>
       <c r="D255" t="n">
-        <v>318057.2</v>
+        <v>440823.2</v>
       </c>
       <c r="E255" t="n">
-        <v>16.4</v>
+        <v>12.5</v>
       </c>
       <c r="F255" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="G255" t="n">
-        <v>13902</v>
+        <v>16703.2</v>
       </c>
       <c r="H255" t="n">
-        <v>117587.9</v>
+        <v>164148.1</v>
       </c>
       <c r="I255" t="n">
-        <v>17.9</v>
+        <v>13.4</v>
+      </c>
+      <c r="J255" t="n">
+        <v>41268.90000000002</v>
+      </c>
+      <c r="K255" t="n">
+        <v>16632.60000000001</v>
       </c>
     </row>
   </sheetData>
